--- a/backend/fms_core/static/submission_templates/Sample_submission_v3_12_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_submission_v3_12_0.xlsx
@@ -9564,9 +9564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1560960</xdr:colOff>
+      <xdr:colOff>1560600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9581,7 +9581,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="76320" y="28440"/>
-          <a:ext cx="1484640" cy="543960"/>
+          <a:ext cx="1484280" cy="543600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9598,7 +9598,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Taxons" displayName="Taxons" ref="G2:G19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="G2:G19"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Column1"/>
   </tableColumns>

--- a/backend/fms_core/static/submission_templates/Sample_submission_v3_12_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_submission_v3_12_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/static/submission_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ckostiw/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256B1223-0216-1849-8A3A-1CCE209A4FDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A96EB6-7FD9-1146-A6D2-C19F6018D96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30200" yWindow="-3100" windowWidth="28800" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleSubmission" sheetId="1" r:id="rId1"/>
@@ -210,6 +210,7 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
@@ -224,34 +225,9 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <family val="34"/>
           </rPr>
           <t xml:space="preserve">Homo Sapiens #9606 
-Mus Musculus #10090 
-Sars-Cov-2 #2697049
-Ixodes Scapularis #6945
-Canis Lupus Familiaris #9615
-Escherichia Coli #562
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Leishmania donovani #5661
-Borreliella burgdorferi #139
-Influenza A virus #11320 
-Influenza B virus #11520
-Respiratory syncytial virus #12814
-Pedicularis canadensis #1325716
-Passiflora #3684
-Salvelinus fontinalis #8038
-Salvelinus namaycush #8040
 </t>
         </r>
         <r>
@@ -259,11 +235,169 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <family val="34"/>
           </rPr>
-          <t>Phaseolus vulgaris #3885
-Gasterosteus aculeatus #69293</t>
+          <t xml:space="preserve">Mus Musculus #10090 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Sars-Cov-2 #2697049
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Ixodes Scapularis #6945
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Canis Lupus Familiaris #9615
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Escherichia Coli #562
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Leishmania donovani #5661
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Borreliella burgdorferi #139
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Influenza A virus #11320 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Influenza B virus #11520
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Respiratory syncytial virus #12814
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Pedicularis canadensis #1325716
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Passiflora #3684
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Salvelinus fontinalis #8038
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Salvelinus namaycush #8040
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Phaseolus vulgaris #3885
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Gasterosteus aculeatus #69293
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Gasterosteus aculeatus aculeatus #481459</t>
         </r>
       </text>
     </comment>
@@ -9116,7 +9250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]\-0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -9200,13 +9334,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -9228,6 +9355,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="34"/>
     </font>
   </fonts>
   <fills count="11">
@@ -9390,15 +9523,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -9930,10 +10063,10 @@
   <dimension ref="A1:AE500"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
@@ -9965,7 +10098,7 @@
     <col min="31" max="32" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="41.25" customHeight="1">
+    <row r="1" spans="1:30" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9974,19 +10107,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="13" customHeight="1"/>
-    <row r="3" spans="1:30" ht="21" customHeight="1">
+    <row r="2" spans="1:30" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="5" customFormat="1">
+    <row r="6" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -10016,7 +10149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="33" customHeight="1">
+    <row r="7" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -10108,7 +10241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -10140,7 +10273,7 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -10172,7 +10305,7 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -10204,7 +10337,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -10236,7 +10369,7 @@
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -10268,7 +10401,7 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -10300,7 +10433,7 @@
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -10332,7 +10465,7 @@
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -10364,7 +10497,7 @@
       <c r="AC15" s="13"/>
       <c r="AD15" s="13"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -10396,7 +10529,7 @@
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -10428,7 +10561,7 @@
       <c r="AC17" s="13"/>
       <c r="AD17" s="13"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -10460,7 +10593,7 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -10492,7 +10625,7 @@
       <c r="AC19" s="13"/>
       <c r="AD19" s="13"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -10524,7 +10657,7 @@
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -10556,7 +10689,7 @@
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -10588,7 +10721,7 @@
       <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -10620,7 +10753,7 @@
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -10652,7 +10785,7 @@
       <c r="AC24" s="13"/>
       <c r="AD24" s="13"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -10684,7 +10817,7 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -10716,7 +10849,7 @@
       <c r="AC26" s="13"/>
       <c r="AD26" s="13"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -10748,7 +10881,7 @@
       <c r="AC27" s="13"/>
       <c r="AD27" s="13"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -10780,7 +10913,7 @@
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -10812,7 +10945,7 @@
       <c r="AC29" s="13"/>
       <c r="AD29" s="13"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -10844,7 +10977,7 @@
       <c r="AC30" s="13"/>
       <c r="AD30" s="13"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -10876,7 +11009,7 @@
       <c r="AC31" s="13"/>
       <c r="AD31" s="13"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -10908,7 +11041,7 @@
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -10940,7 +11073,7 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -10972,7 +11105,7 @@
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -11004,7 +11137,7 @@
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -11036,7 +11169,7 @@
       <c r="AC36" s="13"/>
       <c r="AD36" s="13"/>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -11068,7 +11201,7 @@
       <c r="AC37" s="13"/>
       <c r="AD37" s="13"/>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -11100,7 +11233,7 @@
       <c r="AC38" s="13"/>
       <c r="AD38" s="13"/>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -11132,7 +11265,7 @@
       <c r="AC39" s="13"/>
       <c r="AD39" s="13"/>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -11164,7 +11297,7 @@
       <c r="AC40" s="13"/>
       <c r="AD40" s="13"/>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -11196,7 +11329,7 @@
       <c r="AC41" s="13"/>
       <c r="AD41" s="13"/>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -11228,7 +11361,7 @@
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -11260,7 +11393,7 @@
       <c r="AC43" s="13"/>
       <c r="AD43" s="13"/>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -11292,7 +11425,7 @@
       <c r="AC44" s="13"/>
       <c r="AD44" s="13"/>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -11324,7 +11457,7 @@
       <c r="AC45" s="13"/>
       <c r="AD45" s="13"/>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -11356,7 +11489,7 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -11388,7 +11521,7 @@
       <c r="AC47" s="13"/>
       <c r="AD47" s="13"/>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -11420,7 +11553,7 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -11452,7 +11585,7 @@
       <c r="AC49" s="13"/>
       <c r="AD49" s="13"/>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -11484,7 +11617,7 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -11516,7 +11649,7 @@
       <c r="AC51" s="13"/>
       <c r="AD51" s="13"/>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -11548,7 +11681,7 @@
       <c r="AC52" s="13"/>
       <c r="AD52" s="13"/>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -11580,7 +11713,7 @@
       <c r="AC53" s="13"/>
       <c r="AD53" s="13"/>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -11612,7 +11745,7 @@
       <c r="AC54" s="13"/>
       <c r="AD54" s="13"/>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -11644,7 +11777,7 @@
       <c r="AC55" s="13"/>
       <c r="AD55" s="13"/>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -11676,7 +11809,7 @@
       <c r="AC56" s="13"/>
       <c r="AD56" s="13"/>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -11708,7 +11841,7 @@
       <c r="AC57" s="13"/>
       <c r="AD57" s="13"/>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -11740,7 +11873,7 @@
       <c r="AC58" s="13"/>
       <c r="AD58" s="13"/>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -11772,7 +11905,7 @@
       <c r="AC59" s="13"/>
       <c r="AD59" s="13"/>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -11804,7 +11937,7 @@
       <c r="AC60" s="13"/>
       <c r="AD60" s="13"/>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -11836,7 +11969,7 @@
       <c r="AC61" s="13"/>
       <c r="AD61" s="13"/>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -11868,7 +12001,7 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -11900,7 +12033,7 @@
       <c r="AC63" s="13"/>
       <c r="AD63" s="13"/>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -11932,7 +12065,7 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -11964,7 +12097,7 @@
       <c r="AC65" s="13"/>
       <c r="AD65" s="13"/>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -11996,7 +12129,7 @@
       <c r="AC66" s="13"/>
       <c r="AD66" s="13"/>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -12028,7 +12161,7 @@
       <c r="AC67" s="13"/>
       <c r="AD67" s="13"/>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -12060,7 +12193,7 @@
       <c r="AC68" s="13"/>
       <c r="AD68" s="13"/>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -12092,7 +12225,7 @@
       <c r="AC69" s="13"/>
       <c r="AD69" s="13"/>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -12124,7 +12257,7 @@
       <c r="AC70" s="13"/>
       <c r="AD70" s="13"/>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -12156,7 +12289,7 @@
       <c r="AC71" s="13"/>
       <c r="AD71" s="13"/>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -12188,7 +12321,7 @@
       <c r="AC72" s="13"/>
       <c r="AD72" s="13"/>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -12220,7 +12353,7 @@
       <c r="AC73" s="13"/>
       <c r="AD73" s="13"/>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -12252,7 +12385,7 @@
       <c r="AC74" s="13"/>
       <c r="AD74" s="13"/>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -12284,7 +12417,7 @@
       <c r="AC75" s="13"/>
       <c r="AD75" s="13"/>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -12316,7 +12449,7 @@
       <c r="AC76" s="13"/>
       <c r="AD76" s="13"/>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -12348,7 +12481,7 @@
       <c r="AC77" s="13"/>
       <c r="AD77" s="13"/>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -12380,7 +12513,7 @@
       <c r="AC78" s="13"/>
       <c r="AD78" s="13"/>
     </row>
-    <row r="79" spans="1:30">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -12412,7 +12545,7 @@
       <c r="AC79" s="13"/>
       <c r="AD79" s="13"/>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -12444,7 +12577,7 @@
       <c r="AC80" s="13"/>
       <c r="AD80" s="13"/>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -12476,7 +12609,7 @@
       <c r="AC81" s="13"/>
       <c r="AD81" s="13"/>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -12508,7 +12641,7 @@
       <c r="AC82" s="13"/>
       <c r="AD82" s="13"/>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -12540,7 +12673,7 @@
       <c r="AC83" s="13"/>
       <c r="AD83" s="13"/>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -12572,7 +12705,7 @@
       <c r="AC84" s="13"/>
       <c r="AD84" s="13"/>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -12604,7 +12737,7 @@
       <c r="AC85" s="13"/>
       <c r="AD85" s="13"/>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -12636,7 +12769,7 @@
       <c r="AC86" s="13"/>
       <c r="AD86" s="13"/>
     </row>
-    <row r="87" spans="1:30">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -12668,7 +12801,7 @@
       <c r="AC87" s="13"/>
       <c r="AD87" s="13"/>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -12700,7 +12833,7 @@
       <c r="AC88" s="13"/>
       <c r="AD88" s="13"/>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -12732,7 +12865,7 @@
       <c r="AC89" s="13"/>
       <c r="AD89" s="13"/>
     </row>
-    <row r="90" spans="1:30">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -12764,7 +12897,7 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
     </row>
-    <row r="91" spans="1:30">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -12796,7 +12929,7 @@
       <c r="AC91" s="13"/>
       <c r="AD91" s="13"/>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -12828,7 +12961,7 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -12860,7 +12993,7 @@
       <c r="AC93" s="13"/>
       <c r="AD93" s="13"/>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -12892,7 +13025,7 @@
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -12924,7 +13057,7 @@
       <c r="AC95" s="13"/>
       <c r="AD95" s="13"/>
     </row>
-    <row r="96" spans="1:30">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -12956,7 +13089,7 @@
       <c r="AC96" s="13"/>
       <c r="AD96" s="13"/>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -12988,7 +13121,7 @@
       <c r="AC97" s="13"/>
       <c r="AD97" s="13"/>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -13020,7 +13153,7 @@
       <c r="AC98" s="13"/>
       <c r="AD98" s="13"/>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -13052,7 +13185,7 @@
       <c r="AC99" s="13"/>
       <c r="AD99" s="13"/>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -13084,7 +13217,7 @@
       <c r="AC100" s="13"/>
       <c r="AD100" s="13"/>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -13116,7 +13249,7 @@
       <c r="AC101" s="13"/>
       <c r="AD101" s="13"/>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -13148,7 +13281,7 @@
       <c r="AC102" s="13"/>
       <c r="AD102" s="13"/>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -13180,7 +13313,7 @@
       <c r="AC103" s="13"/>
       <c r="AD103" s="13"/>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -13212,7 +13345,7 @@
       <c r="AC104" s="13"/>
       <c r="AD104" s="13"/>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -13244,7 +13377,7 @@
       <c r="AC105" s="13"/>
       <c r="AD105" s="13"/>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -13276,7 +13409,7 @@
       <c r="AC106" s="13"/>
       <c r="AD106" s="13"/>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -13308,7 +13441,7 @@
       <c r="AC107" s="13"/>
       <c r="AD107" s="13"/>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -13340,7 +13473,7 @@
       <c r="AC108" s="13"/>
       <c r="AD108" s="13"/>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -13372,7 +13505,7 @@
       <c r="AC109" s="13"/>
       <c r="AD109" s="13"/>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -13404,7 +13537,7 @@
       <c r="AC110" s="13"/>
       <c r="AD110" s="13"/>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -13436,7 +13569,7 @@
       <c r="AC111" s="13"/>
       <c r="AD111" s="13"/>
     </row>
-    <row r="112" spans="1:30">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -13468,7 +13601,7 @@
       <c r="AC112" s="13"/>
       <c r="AD112" s="13"/>
     </row>
-    <row r="113" spans="1:30">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -13500,7 +13633,7 @@
       <c r="AC113" s="13"/>
       <c r="AD113" s="13"/>
     </row>
-    <row r="114" spans="1:30">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -13532,7 +13665,7 @@
       <c r="AC114" s="13"/>
       <c r="AD114" s="13"/>
     </row>
-    <row r="115" spans="1:30">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -13564,7 +13697,7 @@
       <c r="AC115" s="13"/>
       <c r="AD115" s="13"/>
     </row>
-    <row r="116" spans="1:30">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -13596,7 +13729,7 @@
       <c r="AC116" s="13"/>
       <c r="AD116" s="13"/>
     </row>
-    <row r="117" spans="1:30">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -13628,7 +13761,7 @@
       <c r="AC117" s="13"/>
       <c r="AD117" s="13"/>
     </row>
-    <row r="118" spans="1:30">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -13660,7 +13793,7 @@
       <c r="AC118" s="13"/>
       <c r="AD118" s="13"/>
     </row>
-    <row r="119" spans="1:30">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -13692,7 +13825,7 @@
       <c r="AC119" s="13"/>
       <c r="AD119" s="13"/>
     </row>
-    <row r="120" spans="1:30">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -13724,7 +13857,7 @@
       <c r="AC120" s="13"/>
       <c r="AD120" s="13"/>
     </row>
-    <row r="121" spans="1:30">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -13756,7 +13889,7 @@
       <c r="AC121" s="13"/>
       <c r="AD121" s="13"/>
     </row>
-    <row r="122" spans="1:30">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -13788,7 +13921,7 @@
       <c r="AC122" s="13"/>
       <c r="AD122" s="13"/>
     </row>
-    <row r="123" spans="1:30">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="13"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -13820,7 +13953,7 @@
       <c r="AC123" s="13"/>
       <c r="AD123" s="13"/>
     </row>
-    <row r="124" spans="1:30">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="13"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -13852,7 +13985,7 @@
       <c r="AC124" s="13"/>
       <c r="AD124" s="13"/>
     </row>
-    <row r="125" spans="1:30">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -13884,7 +14017,7 @@
       <c r="AC125" s="13"/>
       <c r="AD125" s="13"/>
     </row>
-    <row r="126" spans="1:30">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -13916,7 +14049,7 @@
       <c r="AC126" s="13"/>
       <c r="AD126" s="13"/>
     </row>
-    <row r="127" spans="1:30">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="13"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -13948,7 +14081,7 @@
       <c r="AC127" s="13"/>
       <c r="AD127" s="13"/>
     </row>
-    <row r="128" spans="1:30">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -13980,7 +14113,7 @@
       <c r="AC128" s="13"/>
       <c r="AD128" s="13"/>
     </row>
-    <row r="129" spans="1:30">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="13"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -14012,7 +14145,7 @@
       <c r="AC129" s="13"/>
       <c r="AD129" s="13"/>
     </row>
-    <row r="130" spans="1:30">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="13"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -14044,7 +14177,7 @@
       <c r="AC130" s="13"/>
       <c r="AD130" s="13"/>
     </row>
-    <row r="131" spans="1:30">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="13"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -14076,7 +14209,7 @@
       <c r="AC131" s="13"/>
       <c r="AD131" s="13"/>
     </row>
-    <row r="132" spans="1:30">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="13"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -14108,7 +14241,7 @@
       <c r="AC132" s="13"/>
       <c r="AD132" s="13"/>
     </row>
-    <row r="133" spans="1:30">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="13"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -14140,7 +14273,7 @@
       <c r="AC133" s="13"/>
       <c r="AD133" s="13"/>
     </row>
-    <row r="134" spans="1:30">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -14172,7 +14305,7 @@
       <c r="AC134" s="13"/>
       <c r="AD134" s="13"/>
     </row>
-    <row r="135" spans="1:30">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -14204,7 +14337,7 @@
       <c r="AC135" s="13"/>
       <c r="AD135" s="13"/>
     </row>
-    <row r="136" spans="1:30">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="13"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -14236,7 +14369,7 @@
       <c r="AC136" s="13"/>
       <c r="AD136" s="13"/>
     </row>
-    <row r="137" spans="1:30">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -14268,7 +14401,7 @@
       <c r="AC137" s="13"/>
       <c r="AD137" s="13"/>
     </row>
-    <row r="138" spans="1:30">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="13"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -14300,7 +14433,7 @@
       <c r="AC138" s="13"/>
       <c r="AD138" s="13"/>
     </row>
-    <row r="139" spans="1:30">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="13"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -14332,7 +14465,7 @@
       <c r="AC139" s="13"/>
       <c r="AD139" s="13"/>
     </row>
-    <row r="140" spans="1:30">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -14364,7 +14497,7 @@
       <c r="AC140" s="13"/>
       <c r="AD140" s="13"/>
     </row>
-    <row r="141" spans="1:30">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -14396,7 +14529,7 @@
       <c r="AC141" s="13"/>
       <c r="AD141" s="13"/>
     </row>
-    <row r="142" spans="1:30">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="13"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -14428,7 +14561,7 @@
       <c r="AC142" s="13"/>
       <c r="AD142" s="13"/>
     </row>
-    <row r="143" spans="1:30">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -14460,7 +14593,7 @@
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
     </row>
-    <row r="144" spans="1:30">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -14492,7 +14625,7 @@
       <c r="AC144" s="13"/>
       <c r="AD144" s="13"/>
     </row>
-    <row r="145" spans="1:30">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -14524,7 +14657,7 @@
       <c r="AC145" s="13"/>
       <c r="AD145" s="13"/>
     </row>
-    <row r="146" spans="1:30">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="13"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -14556,7 +14689,7 @@
       <c r="AC146" s="13"/>
       <c r="AD146" s="13"/>
     </row>
-    <row r="147" spans="1:30">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="13"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -14588,7 +14721,7 @@
       <c r="AC147" s="13"/>
       <c r="AD147" s="13"/>
     </row>
-    <row r="148" spans="1:30">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="13"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -14620,7 +14753,7 @@
       <c r="AC148" s="13"/>
       <c r="AD148" s="13"/>
     </row>
-    <row r="149" spans="1:30">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="13"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -14652,7 +14785,7 @@
       <c r="AC149" s="13"/>
       <c r="AD149" s="13"/>
     </row>
-    <row r="150" spans="1:30">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -14684,7 +14817,7 @@
       <c r="AC150" s="13"/>
       <c r="AD150" s="13"/>
     </row>
-    <row r="151" spans="1:30">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -14716,7 +14849,7 @@
       <c r="AC151" s="13"/>
       <c r="AD151" s="13"/>
     </row>
-    <row r="152" spans="1:30">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -14748,7 +14881,7 @@
       <c r="AC152" s="13"/>
       <c r="AD152" s="13"/>
     </row>
-    <row r="153" spans="1:30">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -14780,7 +14913,7 @@
       <c r="AC153" s="13"/>
       <c r="AD153" s="13"/>
     </row>
-    <row r="154" spans="1:30">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -14812,7 +14945,7 @@
       <c r="AC154" s="13"/>
       <c r="AD154" s="13"/>
     </row>
-    <row r="155" spans="1:30">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -14844,7 +14977,7 @@
       <c r="AC155" s="13"/>
       <c r="AD155" s="13"/>
     </row>
-    <row r="156" spans="1:30">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -14876,7 +15009,7 @@
       <c r="AC156" s="13"/>
       <c r="AD156" s="13"/>
     </row>
-    <row r="157" spans="1:30">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -14908,7 +15041,7 @@
       <c r="AC157" s="13"/>
       <c r="AD157" s="13"/>
     </row>
-    <row r="158" spans="1:30">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -14940,7 +15073,7 @@
       <c r="AC158" s="13"/>
       <c r="AD158" s="13"/>
     </row>
-    <row r="159" spans="1:30">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -14972,7 +15105,7 @@
       <c r="AC159" s="13"/>
       <c r="AD159" s="13"/>
     </row>
-    <row r="160" spans="1:30">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -15004,7 +15137,7 @@
       <c r="AC160" s="13"/>
       <c r="AD160" s="13"/>
     </row>
-    <row r="161" spans="1:30">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -15036,7 +15169,7 @@
       <c r="AC161" s="13"/>
       <c r="AD161" s="13"/>
     </row>
-    <row r="162" spans="1:30">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -15068,7 +15201,7 @@
       <c r="AC162" s="13"/>
       <c r="AD162" s="13"/>
     </row>
-    <row r="163" spans="1:30">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -15100,7 +15233,7 @@
       <c r="AC163" s="13"/>
       <c r="AD163" s="13"/>
     </row>
-    <row r="164" spans="1:30">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -15132,7 +15265,7 @@
       <c r="AC164" s="13"/>
       <c r="AD164" s="13"/>
     </row>
-    <row r="165" spans="1:30">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -15164,7 +15297,7 @@
       <c r="AC165" s="13"/>
       <c r="AD165" s="13"/>
     </row>
-    <row r="166" spans="1:30">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -15196,7 +15329,7 @@
       <c r="AC166" s="13"/>
       <c r="AD166" s="13"/>
     </row>
-    <row r="167" spans="1:30">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -15228,7 +15361,7 @@
       <c r="AC167" s="13"/>
       <c r="AD167" s="13"/>
     </row>
-    <row r="168" spans="1:30">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -15260,7 +15393,7 @@
       <c r="AC168" s="13"/>
       <c r="AD168" s="13"/>
     </row>
-    <row r="169" spans="1:30">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -15292,7 +15425,7 @@
       <c r="AC169" s="13"/>
       <c r="AD169" s="13"/>
     </row>
-    <row r="170" spans="1:30">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -15324,7 +15457,7 @@
       <c r="AC170" s="13"/>
       <c r="AD170" s="13"/>
     </row>
-    <row r="171" spans="1:30">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -15356,7 +15489,7 @@
       <c r="AC171" s="13"/>
       <c r="AD171" s="13"/>
     </row>
-    <row r="172" spans="1:30">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -15388,7 +15521,7 @@
       <c r="AC172" s="13"/>
       <c r="AD172" s="13"/>
     </row>
-    <row r="173" spans="1:30">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -15420,7 +15553,7 @@
       <c r="AC173" s="13"/>
       <c r="AD173" s="13"/>
     </row>
-    <row r="174" spans="1:30">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -15452,7 +15585,7 @@
       <c r="AC174" s="13"/>
       <c r="AD174" s="13"/>
     </row>
-    <row r="175" spans="1:30">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -15484,7 +15617,7 @@
       <c r="AC175" s="13"/>
       <c r="AD175" s="13"/>
     </row>
-    <row r="176" spans="1:30">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -15516,7 +15649,7 @@
       <c r="AC176" s="13"/>
       <c r="AD176" s="13"/>
     </row>
-    <row r="177" spans="1:30">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -15548,7 +15681,7 @@
       <c r="AC177" s="13"/>
       <c r="AD177" s="13"/>
     </row>
-    <row r="178" spans="1:30">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -15580,7 +15713,7 @@
       <c r="AC178" s="13"/>
       <c r="AD178" s="13"/>
     </row>
-    <row r="179" spans="1:30">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -15612,7 +15745,7 @@
       <c r="AC179" s="13"/>
       <c r="AD179" s="13"/>
     </row>
-    <row r="180" spans="1:30">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -15644,7 +15777,7 @@
       <c r="AC180" s="13"/>
       <c r="AD180" s="13"/>
     </row>
-    <row r="181" spans="1:30">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -15676,7 +15809,7 @@
       <c r="AC181" s="13"/>
       <c r="AD181" s="13"/>
     </row>
-    <row r="182" spans="1:30">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -15708,7 +15841,7 @@
       <c r="AC182" s="13"/>
       <c r="AD182" s="13"/>
     </row>
-    <row r="183" spans="1:30">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -15740,7 +15873,7 @@
       <c r="AC183" s="13"/>
       <c r="AD183" s="13"/>
     </row>
-    <row r="184" spans="1:30">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -15772,7 +15905,7 @@
       <c r="AC184" s="13"/>
       <c r="AD184" s="13"/>
     </row>
-    <row r="185" spans="1:30">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -15804,7 +15937,7 @@
       <c r="AC185" s="13"/>
       <c r="AD185" s="13"/>
     </row>
-    <row r="186" spans="1:30">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -15836,7 +15969,7 @@
       <c r="AC186" s="13"/>
       <c r="AD186" s="13"/>
     </row>
-    <row r="187" spans="1:30">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -15868,7 +16001,7 @@
       <c r="AC187" s="13"/>
       <c r="AD187" s="13"/>
     </row>
-    <row r="188" spans="1:30">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -15900,7 +16033,7 @@
       <c r="AC188" s="13"/>
       <c r="AD188" s="13"/>
     </row>
-    <row r="189" spans="1:30">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -15932,7 +16065,7 @@
       <c r="AC189" s="13"/>
       <c r="AD189" s="13"/>
     </row>
-    <row r="190" spans="1:30">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -15964,7 +16097,7 @@
       <c r="AC190" s="13"/>
       <c r="AD190" s="13"/>
     </row>
-    <row r="191" spans="1:30">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -15996,7 +16129,7 @@
       <c r="AC191" s="13"/>
       <c r="AD191" s="13"/>
     </row>
-    <row r="192" spans="1:30">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -16028,7 +16161,7 @@
       <c r="AC192" s="13"/>
       <c r="AD192" s="13"/>
     </row>
-    <row r="193" spans="1:30">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -16060,7 +16193,7 @@
       <c r="AC193" s="13"/>
       <c r="AD193" s="13"/>
     </row>
-    <row r="194" spans="1:30">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="13"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -16092,7 +16225,7 @@
       <c r="AC194" s="13"/>
       <c r="AD194" s="13"/>
     </row>
-    <row r="195" spans="1:30">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -16124,7 +16257,7 @@
       <c r="AC195" s="13"/>
       <c r="AD195" s="13"/>
     </row>
-    <row r="196" spans="1:30">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -16156,7 +16289,7 @@
       <c r="AC196" s="13"/>
       <c r="AD196" s="13"/>
     </row>
-    <row r="197" spans="1:30">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="13"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -16188,7 +16321,7 @@
       <c r="AC197" s="13"/>
       <c r="AD197" s="13"/>
     </row>
-    <row r="198" spans="1:30">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="13"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -16220,7 +16353,7 @@
       <c r="AC198" s="13"/>
       <c r="AD198" s="13"/>
     </row>
-    <row r="199" spans="1:30">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="13"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -16252,7 +16385,7 @@
       <c r="AC199" s="13"/>
       <c r="AD199" s="13"/>
     </row>
-    <row r="200" spans="1:30">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -16284,7 +16417,7 @@
       <c r="AC200" s="13"/>
       <c r="AD200" s="13"/>
     </row>
-    <row r="201" spans="1:30">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="13"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
@@ -16316,7 +16449,7 @@
       <c r="AC201" s="13"/>
       <c r="AD201" s="13"/>
     </row>
-    <row r="202" spans="1:30">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="13"/>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
@@ -16348,7 +16481,7 @@
       <c r="AC202" s="13"/>
       <c r="AD202" s="13"/>
     </row>
-    <row r="203" spans="1:30">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="13"/>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
@@ -16380,7 +16513,7 @@
       <c r="AC203" s="13"/>
       <c r="AD203" s="13"/>
     </row>
-    <row r="204" spans="1:30">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="13"/>
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
@@ -16412,7 +16545,7 @@
       <c r="AC204" s="13"/>
       <c r="AD204" s="13"/>
     </row>
-    <row r="205" spans="1:30">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="13"/>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -16444,7 +16577,7 @@
       <c r="AC205" s="13"/>
       <c r="AD205" s="13"/>
     </row>
-    <row r="206" spans="1:30">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="13"/>
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
@@ -16476,7 +16609,7 @@
       <c r="AC206" s="13"/>
       <c r="AD206" s="13"/>
     </row>
-    <row r="207" spans="1:30">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="13"/>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
@@ -16508,7 +16641,7 @@
       <c r="AC207" s="13"/>
       <c r="AD207" s="13"/>
     </row>
-    <row r="208" spans="1:30">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="13"/>
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
@@ -16540,7 +16673,7 @@
       <c r="AC208" s="13"/>
       <c r="AD208" s="13"/>
     </row>
-    <row r="209" spans="1:30">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="13"/>
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
@@ -16572,7 +16705,7 @@
       <c r="AC209" s="13"/>
       <c r="AD209" s="13"/>
     </row>
-    <row r="210" spans="1:30">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
@@ -16604,7 +16737,7 @@
       <c r="AC210" s="13"/>
       <c r="AD210" s="13"/>
     </row>
-    <row r="211" spans="1:30">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" s="13"/>
       <c r="B211" s="13"/>
       <c r="C211" s="13"/>
@@ -16636,7 +16769,7 @@
       <c r="AC211" s="13"/>
       <c r="AD211" s="13"/>
     </row>
-    <row r="212" spans="1:30">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" s="13"/>
       <c r="B212" s="13"/>
       <c r="C212" s="13"/>
@@ -16668,7 +16801,7 @@
       <c r="AC212" s="13"/>
       <c r="AD212" s="13"/>
     </row>
-    <row r="213" spans="1:30">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" s="13"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
@@ -16700,7 +16833,7 @@
       <c r="AC213" s="13"/>
       <c r="AD213" s="13"/>
     </row>
-    <row r="214" spans="1:30">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="13"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -16732,7 +16865,7 @@
       <c r="AC214" s="13"/>
       <c r="AD214" s="13"/>
     </row>
-    <row r="215" spans="1:30">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" s="13"/>
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
@@ -16764,7 +16897,7 @@
       <c r="AC215" s="13"/>
       <c r="AD215" s="13"/>
     </row>
-    <row r="216" spans="1:30">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" s="13"/>
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
@@ -16796,7 +16929,7 @@
       <c r="AC216" s="13"/>
       <c r="AD216" s="13"/>
     </row>
-    <row r="217" spans="1:30">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" s="13"/>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
@@ -16828,7 +16961,7 @@
       <c r="AC217" s="13"/>
       <c r="AD217" s="13"/>
     </row>
-    <row r="218" spans="1:30">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
@@ -16860,7 +16993,7 @@
       <c r="AC218" s="13"/>
       <c r="AD218" s="13"/>
     </row>
-    <row r="219" spans="1:30">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" s="13"/>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
@@ -16892,7 +17025,7 @@
       <c r="AC219" s="13"/>
       <c r="AD219" s="13"/>
     </row>
-    <row r="220" spans="1:30">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" s="13"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
@@ -16924,7 +17057,7 @@
       <c r="AC220" s="13"/>
       <c r="AD220" s="13"/>
     </row>
-    <row r="221" spans="1:30">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="13"/>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
@@ -16956,7 +17089,7 @@
       <c r="AC221" s="13"/>
       <c r="AD221" s="13"/>
     </row>
-    <row r="222" spans="1:30">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" s="13"/>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
@@ -16988,7 +17121,7 @@
       <c r="AC222" s="13"/>
       <c r="AD222" s="13"/>
     </row>
-    <row r="223" spans="1:30">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
@@ -17020,7 +17153,7 @@
       <c r="AC223" s="13"/>
       <c r="AD223" s="13"/>
     </row>
-    <row r="224" spans="1:30">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" s="13"/>
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
@@ -17052,7 +17185,7 @@
       <c r="AC224" s="13"/>
       <c r="AD224" s="13"/>
     </row>
-    <row r="225" spans="1:30">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" s="13"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -17084,7 +17217,7 @@
       <c r="AC225" s="13"/>
       <c r="AD225" s="13"/>
     </row>
-    <row r="226" spans="1:30">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" s="13"/>
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
@@ -17116,7 +17249,7 @@
       <c r="AC226" s="13"/>
       <c r="AD226" s="13"/>
     </row>
-    <row r="227" spans="1:30">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
@@ -17148,7 +17281,7 @@
       <c r="AC227" s="13"/>
       <c r="AD227" s="13"/>
     </row>
-    <row r="228" spans="1:30">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" s="13"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
@@ -17180,7 +17313,7 @@
       <c r="AC228" s="13"/>
       <c r="AD228" s="13"/>
     </row>
-    <row r="229" spans="1:30">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" s="13"/>
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
@@ -17212,7 +17345,7 @@
       <c r="AC229" s="13"/>
       <c r="AD229" s="13"/>
     </row>
-    <row r="230" spans="1:30">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
@@ -17244,7 +17377,7 @@
       <c r="AC230" s="13"/>
       <c r="AD230" s="13"/>
     </row>
-    <row r="231" spans="1:30">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" s="13"/>
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
@@ -17276,7 +17409,7 @@
       <c r="AC231" s="13"/>
       <c r="AD231" s="13"/>
     </row>
-    <row r="232" spans="1:30">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" s="13"/>
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
@@ -17308,7 +17441,7 @@
       <c r="AC232" s="13"/>
       <c r="AD232" s="13"/>
     </row>
-    <row r="233" spans="1:30">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" s="13"/>
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
@@ -17340,7 +17473,7 @@
       <c r="AC233" s="13"/>
       <c r="AD233" s="13"/>
     </row>
-    <row r="234" spans="1:30">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="13"/>
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
@@ -17372,7 +17505,7 @@
       <c r="AC234" s="13"/>
       <c r="AD234" s="13"/>
     </row>
-    <row r="235" spans="1:30">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="13"/>
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
@@ -17404,7 +17537,7 @@
       <c r="AC235" s="13"/>
       <c r="AD235" s="13"/>
     </row>
-    <row r="236" spans="1:30">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" s="13"/>
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
@@ -17436,7 +17569,7 @@
       <c r="AC236" s="13"/>
       <c r="AD236" s="13"/>
     </row>
-    <row r="237" spans="1:30">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" s="13"/>
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
@@ -17468,7 +17601,7 @@
       <c r="AC237" s="13"/>
       <c r="AD237" s="13"/>
     </row>
-    <row r="238" spans="1:30">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" s="13"/>
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
@@ -17500,7 +17633,7 @@
       <c r="AC238" s="13"/>
       <c r="AD238" s="13"/>
     </row>
-    <row r="239" spans="1:30">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="13"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
@@ -17532,7 +17665,7 @@
       <c r="AC239" s="13"/>
       <c r="AD239" s="13"/>
     </row>
-    <row r="240" spans="1:30">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
@@ -17564,7 +17697,7 @@
       <c r="AC240" s="13"/>
       <c r="AD240" s="13"/>
     </row>
-    <row r="241" spans="1:30">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -17596,7 +17729,7 @@
       <c r="AC241" s="13"/>
       <c r="AD241" s="13"/>
     </row>
-    <row r="242" spans="1:30">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -17628,7 +17761,7 @@
       <c r="AC242" s="13"/>
       <c r="AD242" s="13"/>
     </row>
-    <row r="243" spans="1:30">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="13"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
@@ -17660,7 +17793,7 @@
       <c r="AC243" s="13"/>
       <c r="AD243" s="13"/>
     </row>
-    <row r="244" spans="1:30">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
@@ -17692,7 +17825,7 @@
       <c r="AC244" s="13"/>
       <c r="AD244" s="13"/>
     </row>
-    <row r="245" spans="1:30">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
@@ -17724,7 +17857,7 @@
       <c r="AC245" s="13"/>
       <c r="AD245" s="13"/>
     </row>
-    <row r="246" spans="1:30">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -17756,7 +17889,7 @@
       <c r="AC246" s="13"/>
       <c r="AD246" s="13"/>
     </row>
-    <row r="247" spans="1:30">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" s="13"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -17788,7 +17921,7 @@
       <c r="AC247" s="13"/>
       <c r="AD247" s="13"/>
     </row>
-    <row r="248" spans="1:30">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -17820,7 +17953,7 @@
       <c r="AC248" s="13"/>
       <c r="AD248" s="13"/>
     </row>
-    <row r="249" spans="1:30">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -17852,7 +17985,7 @@
       <c r="AC249" s="13"/>
       <c r="AD249" s="13"/>
     </row>
-    <row r="250" spans="1:30">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -17884,7 +18017,7 @@
       <c r="AC250" s="13"/>
       <c r="AD250" s="13"/>
     </row>
-    <row r="251" spans="1:30">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" s="13"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
@@ -17916,7 +18049,7 @@
       <c r="AC251" s="13"/>
       <c r="AD251" s="13"/>
     </row>
-    <row r="252" spans="1:30">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
@@ -17948,7 +18081,7 @@
       <c r="AC252" s="13"/>
       <c r="AD252" s="13"/>
     </row>
-    <row r="253" spans="1:30">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
@@ -17980,7 +18113,7 @@
       <c r="AC253" s="13"/>
       <c r="AD253" s="13"/>
     </row>
-    <row r="254" spans="1:30">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
@@ -18012,7 +18145,7 @@
       <c r="AC254" s="13"/>
       <c r="AD254" s="13"/>
     </row>
-    <row r="255" spans="1:30">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
@@ -18044,7 +18177,7 @@
       <c r="AC255" s="13"/>
       <c r="AD255" s="13"/>
     </row>
-    <row r="256" spans="1:30">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -18076,7 +18209,7 @@
       <c r="AC256" s="13"/>
       <c r="AD256" s="13"/>
     </row>
-    <row r="257" spans="1:30">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
@@ -18108,7 +18241,7 @@
       <c r="AC257" s="13"/>
       <c r="AD257" s="13"/>
     </row>
-    <row r="258" spans="1:30">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
@@ -18140,7 +18273,7 @@
       <c r="AC258" s="13"/>
       <c r="AD258" s="13"/>
     </row>
-    <row r="259" spans="1:30">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
@@ -18172,7 +18305,7 @@
       <c r="AC259" s="13"/>
       <c r="AD259" s="13"/>
     </row>
-    <row r="260" spans="1:30">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" s="13"/>
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
@@ -18204,7 +18337,7 @@
       <c r="AC260" s="13"/>
       <c r="AD260" s="13"/>
     </row>
-    <row r="261" spans="1:30">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
@@ -18236,7 +18369,7 @@
       <c r="AC261" s="13"/>
       <c r="AD261" s="13"/>
     </row>
-    <row r="262" spans="1:30">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
@@ -18268,7 +18401,7 @@
       <c r="AC262" s="13"/>
       <c r="AD262" s="13"/>
     </row>
-    <row r="263" spans="1:30">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" s="13"/>
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
@@ -18300,7 +18433,7 @@
       <c r="AC263" s="13"/>
       <c r="AD263" s="13"/>
     </row>
-    <row r="264" spans="1:30">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
@@ -18332,7 +18465,7 @@
       <c r="AC264" s="13"/>
       <c r="AD264" s="13"/>
     </row>
-    <row r="265" spans="1:30">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
@@ -18364,7 +18497,7 @@
       <c r="AC265" s="13"/>
       <c r="AD265" s="13"/>
     </row>
-    <row r="266" spans="1:30">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
@@ -18396,7 +18529,7 @@
       <c r="AC266" s="13"/>
       <c r="AD266" s="13"/>
     </row>
-    <row r="267" spans="1:30">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
@@ -18428,7 +18561,7 @@
       <c r="AC267" s="13"/>
       <c r="AD267" s="13"/>
     </row>
-    <row r="268" spans="1:30">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
@@ -18460,7 +18593,7 @@
       <c r="AC268" s="13"/>
       <c r="AD268" s="13"/>
     </row>
-    <row r="269" spans="1:30">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
@@ -18492,7 +18625,7 @@
       <c r="AC269" s="13"/>
       <c r="AD269" s="13"/>
     </row>
-    <row r="270" spans="1:30">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
@@ -18524,7 +18657,7 @@
       <c r="AC270" s="13"/>
       <c r="AD270" s="13"/>
     </row>
-    <row r="271" spans="1:30">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" s="13"/>
       <c r="B271" s="13"/>
       <c r="C271" s="13"/>
@@ -18556,7 +18689,7 @@
       <c r="AC271" s="13"/>
       <c r="AD271" s="13"/>
     </row>
-    <row r="272" spans="1:30">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
@@ -18588,7 +18721,7 @@
       <c r="AC272" s="13"/>
       <c r="AD272" s="13"/>
     </row>
-    <row r="273" spans="1:30">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -18620,7 +18753,7 @@
       <c r="AC273" s="13"/>
       <c r="AD273" s="13"/>
     </row>
-    <row r="274" spans="1:30">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
@@ -18652,7 +18785,7 @@
       <c r="AC274" s="13"/>
       <c r="AD274" s="13"/>
     </row>
-    <row r="275" spans="1:30">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -18684,7 +18817,7 @@
       <c r="AC275" s="13"/>
       <c r="AD275" s="13"/>
     </row>
-    <row r="276" spans="1:30">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -18716,7 +18849,7 @@
       <c r="AC276" s="13"/>
       <c r="AD276" s="13"/>
     </row>
-    <row r="277" spans="1:30">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
@@ -18748,7 +18881,7 @@
       <c r="AC277" s="13"/>
       <c r="AD277" s="13"/>
     </row>
-    <row r="278" spans="1:30">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
@@ -18780,7 +18913,7 @@
       <c r="AC278" s="13"/>
       <c r="AD278" s="13"/>
     </row>
-    <row r="279" spans="1:30">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
       <c r="C279" s="13"/>
@@ -18812,7 +18945,7 @@
       <c r="AC279" s="13"/>
       <c r="AD279" s="13"/>
     </row>
-    <row r="280" spans="1:30">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
@@ -18844,7 +18977,7 @@
       <c r="AC280" s="13"/>
       <c r="AD280" s="13"/>
     </row>
-    <row r="281" spans="1:30">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
@@ -18876,7 +19009,7 @@
       <c r="AC281" s="13"/>
       <c r="AD281" s="13"/>
     </row>
-    <row r="282" spans="1:30">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
@@ -18908,7 +19041,7 @@
       <c r="AC282" s="13"/>
       <c r="AD282" s="13"/>
     </row>
-    <row r="283" spans="1:30">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
       <c r="C283" s="13"/>
@@ -18940,7 +19073,7 @@
       <c r="AC283" s="13"/>
       <c r="AD283" s="13"/>
     </row>
-    <row r="284" spans="1:30">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
@@ -18972,7 +19105,7 @@
       <c r="AC284" s="13"/>
       <c r="AD284" s="13"/>
     </row>
-    <row r="285" spans="1:30">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="C285" s="13"/>
@@ -19004,7 +19137,7 @@
       <c r="AC285" s="13"/>
       <c r="AD285" s="13"/>
     </row>
-    <row r="286" spans="1:30">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="C286" s="13"/>
@@ -19036,7 +19169,7 @@
       <c r="AC286" s="13"/>
       <c r="AD286" s="13"/>
     </row>
-    <row r="287" spans="1:30">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
@@ -19068,7 +19201,7 @@
       <c r="AC287" s="13"/>
       <c r="AD287" s="13"/>
     </row>
-    <row r="288" spans="1:30">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="13"/>
       <c r="B288" s="13"/>
       <c r="C288" s="13"/>
@@ -19100,7 +19233,7 @@
       <c r="AC288" s="13"/>
       <c r="AD288" s="13"/>
     </row>
-    <row r="289" spans="1:30">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="C289" s="13"/>
@@ -19132,7 +19265,7 @@
       <c r="AC289" s="13"/>
       <c r="AD289" s="13"/>
     </row>
-    <row r="290" spans="1:30">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
@@ -19164,7 +19297,7 @@
       <c r="AC290" s="13"/>
       <c r="AD290" s="13"/>
     </row>
-    <row r="291" spans="1:30">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
       <c r="C291" s="13"/>
@@ -19196,7 +19329,7 @@
       <c r="AC291" s="13"/>
       <c r="AD291" s="13"/>
     </row>
-    <row r="292" spans="1:30">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" s="13"/>
       <c r="B292" s="13"/>
       <c r="C292" s="13"/>
@@ -19228,7 +19361,7 @@
       <c r="AC292" s="13"/>
       <c r="AD292" s="13"/>
     </row>
-    <row r="293" spans="1:30">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
@@ -19260,7 +19393,7 @@
       <c r="AC293" s="13"/>
       <c r="AD293" s="13"/>
     </row>
-    <row r="294" spans="1:30">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
       <c r="C294" s="13"/>
@@ -19292,7 +19425,7 @@
       <c r="AC294" s="13"/>
       <c r="AD294" s="13"/>
     </row>
-    <row r="295" spans="1:30">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
       <c r="C295" s="13"/>
@@ -19324,7 +19457,7 @@
       <c r="AC295" s="13"/>
       <c r="AD295" s="13"/>
     </row>
-    <row r="296" spans="1:30">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
       <c r="C296" s="13"/>
@@ -19356,7 +19489,7 @@
       <c r="AC296" s="13"/>
       <c r="AD296" s="13"/>
     </row>
-    <row r="297" spans="1:30">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" s="13"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -19388,7 +19521,7 @@
       <c r="AC297" s="13"/>
       <c r="AD297" s="13"/>
     </row>
-    <row r="298" spans="1:30">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="C298" s="13"/>
@@ -19420,7 +19553,7 @@
       <c r="AC298" s="13"/>
       <c r="AD298" s="13"/>
     </row>
-    <row r="299" spans="1:30">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
@@ -19452,7 +19585,7 @@
       <c r="AC299" s="13"/>
       <c r="AD299" s="13"/>
     </row>
-    <row r="300" spans="1:30">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
@@ -19484,7 +19617,7 @@
       <c r="AC300" s="13"/>
       <c r="AD300" s="13"/>
     </row>
-    <row r="301" spans="1:30">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" s="13"/>
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
@@ -19516,7 +19649,7 @@
       <c r="AC301" s="13"/>
       <c r="AD301" s="13"/>
     </row>
-    <row r="302" spans="1:30">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" s="13"/>
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
@@ -19548,7 +19681,7 @@
       <c r="AC302" s="13"/>
       <c r="AD302" s="13"/>
     </row>
-    <row r="303" spans="1:30">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" s="13"/>
       <c r="B303" s="13"/>
       <c r="C303" s="13"/>
@@ -19580,7 +19713,7 @@
       <c r="AC303" s="13"/>
       <c r="AD303" s="13"/>
     </row>
-    <row r="304" spans="1:30">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" s="13"/>
       <c r="B304" s="13"/>
       <c r="C304" s="13"/>
@@ -19612,7 +19745,7 @@
       <c r="AC304" s="13"/>
       <c r="AD304" s="13"/>
     </row>
-    <row r="305" spans="1:30">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
       <c r="C305" s="13"/>
@@ -19644,7 +19777,7 @@
       <c r="AC305" s="13"/>
       <c r="AD305" s="13"/>
     </row>
-    <row r="306" spans="1:30">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
       <c r="C306" s="13"/>
@@ -19676,7 +19809,7 @@
       <c r="AC306" s="13"/>
       <c r="AD306" s="13"/>
     </row>
-    <row r="307" spans="1:30">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
@@ -19708,7 +19841,7 @@
       <c r="AC307" s="13"/>
       <c r="AD307" s="13"/>
     </row>
-    <row r="308" spans="1:30">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
       <c r="C308" s="13"/>
@@ -19740,7 +19873,7 @@
       <c r="AC308" s="13"/>
       <c r="AD308" s="13"/>
     </row>
-    <row r="309" spans="1:30">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
       <c r="C309" s="13"/>
@@ -19772,7 +19905,7 @@
       <c r="AC309" s="13"/>
       <c r="AD309" s="13"/>
     </row>
-    <row r="310" spans="1:30">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
       <c r="C310" s="13"/>
@@ -19804,7 +19937,7 @@
       <c r="AC310" s="13"/>
       <c r="AD310" s="13"/>
     </row>
-    <row r="311" spans="1:30">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
@@ -19836,7 +19969,7 @@
       <c r="AC311" s="13"/>
       <c r="AD311" s="13"/>
     </row>
-    <row r="312" spans="1:30">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
       <c r="C312" s="13"/>
@@ -19868,7 +20001,7 @@
       <c r="AC312" s="13"/>
       <c r="AD312" s="13"/>
     </row>
-    <row r="313" spans="1:30">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
       <c r="C313" s="13"/>
@@ -19900,7 +20033,7 @@
       <c r="AC313" s="13"/>
       <c r="AD313" s="13"/>
     </row>
-    <row r="314" spans="1:30">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
@@ -19932,7 +20065,7 @@
       <c r="AC314" s="13"/>
       <c r="AD314" s="13"/>
     </row>
-    <row r="315" spans="1:30">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
       <c r="C315" s="13"/>
@@ -19964,7 +20097,7 @@
       <c r="AC315" s="13"/>
       <c r="AD315" s="13"/>
     </row>
-    <row r="316" spans="1:30">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
@@ -19996,7 +20129,7 @@
       <c r="AC316" s="13"/>
       <c r="AD316" s="13"/>
     </row>
-    <row r="317" spans="1:30">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
       <c r="C317" s="13"/>
@@ -20028,7 +20161,7 @@
       <c r="AC317" s="13"/>
       <c r="AD317" s="13"/>
     </row>
-    <row r="318" spans="1:30">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" s="13"/>
       <c r="B318" s="13"/>
       <c r="C318" s="13"/>
@@ -20060,7 +20193,7 @@
       <c r="AC318" s="13"/>
       <c r="AD318" s="13"/>
     </row>
-    <row r="319" spans="1:30">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
       <c r="C319" s="13"/>
@@ -20092,7 +20225,7 @@
       <c r="AC319" s="13"/>
       <c r="AD319" s="13"/>
     </row>
-    <row r="320" spans="1:30">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
       <c r="C320" s="13"/>
@@ -20124,7 +20257,7 @@
       <c r="AC320" s="13"/>
       <c r="AD320" s="13"/>
     </row>
-    <row r="321" spans="1:30">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
       <c r="C321" s="13"/>
@@ -20156,7 +20289,7 @@
       <c r="AC321" s="13"/>
       <c r="AD321" s="13"/>
     </row>
-    <row r="322" spans="1:30">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" s="13"/>
       <c r="B322" s="13"/>
       <c r="C322" s="13"/>
@@ -20188,7 +20321,7 @@
       <c r="AC322" s="13"/>
       <c r="AD322" s="13"/>
     </row>
-    <row r="323" spans="1:30">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
       <c r="C323" s="13"/>
@@ -20220,7 +20353,7 @@
       <c r="AC323" s="13"/>
       <c r="AD323" s="13"/>
     </row>
-    <row r="324" spans="1:30">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" s="13"/>
       <c r="B324" s="13"/>
       <c r="C324" s="13"/>
@@ -20252,7 +20385,7 @@
       <c r="AC324" s="13"/>
       <c r="AD324" s="13"/>
     </row>
-    <row r="325" spans="1:30">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" s="13"/>
       <c r="B325" s="13"/>
       <c r="C325" s="13"/>
@@ -20284,7 +20417,7 @@
       <c r="AC325" s="13"/>
       <c r="AD325" s="13"/>
     </row>
-    <row r="326" spans="1:30">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" s="13"/>
       <c r="B326" s="13"/>
       <c r="C326" s="13"/>
@@ -20316,7 +20449,7 @@
       <c r="AC326" s="13"/>
       <c r="AD326" s="13"/>
     </row>
-    <row r="327" spans="1:30">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
       <c r="C327" s="13"/>
@@ -20348,7 +20481,7 @@
       <c r="AC327" s="13"/>
       <c r="AD327" s="13"/>
     </row>
-    <row r="328" spans="1:30">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" s="13"/>
       <c r="B328" s="13"/>
       <c r="C328" s="13"/>
@@ -20380,7 +20513,7 @@
       <c r="AC328" s="13"/>
       <c r="AD328" s="13"/>
     </row>
-    <row r="329" spans="1:30">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" s="13"/>
       <c r="B329" s="13"/>
       <c r="C329" s="13"/>
@@ -20412,7 +20545,7 @@
       <c r="AC329" s="13"/>
       <c r="AD329" s="13"/>
     </row>
-    <row r="330" spans="1:30">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" s="13"/>
       <c r="B330" s="13"/>
       <c r="C330" s="13"/>
@@ -20444,7 +20577,7 @@
       <c r="AC330" s="13"/>
       <c r="AD330" s="13"/>
     </row>
-    <row r="331" spans="1:30">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" s="13"/>
       <c r="B331" s="13"/>
       <c r="C331" s="13"/>
@@ -20476,7 +20609,7 @@
       <c r="AC331" s="13"/>
       <c r="AD331" s="13"/>
     </row>
-    <row r="332" spans="1:30">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" s="13"/>
       <c r="B332" s="13"/>
       <c r="C332" s="13"/>
@@ -20508,7 +20641,7 @@
       <c r="AC332" s="13"/>
       <c r="AD332" s="13"/>
     </row>
-    <row r="333" spans="1:30">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" s="13"/>
       <c r="B333" s="13"/>
       <c r="C333" s="13"/>
@@ -20540,7 +20673,7 @@
       <c r="AC333" s="13"/>
       <c r="AD333" s="13"/>
     </row>
-    <row r="334" spans="1:30">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" s="13"/>
       <c r="B334" s="13"/>
       <c r="C334" s="13"/>
@@ -20572,7 +20705,7 @@
       <c r="AC334" s="13"/>
       <c r="AD334" s="13"/>
     </row>
-    <row r="335" spans="1:30">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" s="13"/>
       <c r="B335" s="13"/>
       <c r="C335" s="13"/>
@@ -20604,7 +20737,7 @@
       <c r="AC335" s="13"/>
       <c r="AD335" s="13"/>
     </row>
-    <row r="336" spans="1:30">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" s="13"/>
       <c r="B336" s="13"/>
       <c r="C336" s="13"/>
@@ -20636,7 +20769,7 @@
       <c r="AC336" s="13"/>
       <c r="AD336" s="13"/>
     </row>
-    <row r="337" spans="1:30">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" s="13"/>
       <c r="B337" s="13"/>
       <c r="C337" s="13"/>
@@ -20668,7 +20801,7 @@
       <c r="AC337" s="13"/>
       <c r="AD337" s="13"/>
     </row>
-    <row r="338" spans="1:30">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" s="13"/>
       <c r="B338" s="13"/>
       <c r="C338" s="13"/>
@@ -20700,7 +20833,7 @@
       <c r="AC338" s="13"/>
       <c r="AD338" s="13"/>
     </row>
-    <row r="339" spans="1:30">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
@@ -20732,7 +20865,7 @@
       <c r="AC339" s="13"/>
       <c r="AD339" s="13"/>
     </row>
-    <row r="340" spans="1:30">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" s="13"/>
       <c r="B340" s="13"/>
       <c r="C340" s="13"/>
@@ -20764,7 +20897,7 @@
       <c r="AC340" s="13"/>
       <c r="AD340" s="13"/>
     </row>
-    <row r="341" spans="1:30">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" s="13"/>
       <c r="B341" s="13"/>
       <c r="C341" s="13"/>
@@ -20796,7 +20929,7 @@
       <c r="AC341" s="13"/>
       <c r="AD341" s="13"/>
     </row>
-    <row r="342" spans="1:30">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" s="13"/>
       <c r="B342" s="13"/>
       <c r="C342" s="13"/>
@@ -20828,7 +20961,7 @@
       <c r="AC342" s="13"/>
       <c r="AD342" s="13"/>
     </row>
-    <row r="343" spans="1:30">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" s="13"/>
       <c r="B343" s="13"/>
       <c r="C343" s="13"/>
@@ -20860,7 +20993,7 @@
       <c r="AC343" s="13"/>
       <c r="AD343" s="13"/>
     </row>
-    <row r="344" spans="1:30">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" s="13"/>
       <c r="B344" s="13"/>
       <c r="C344" s="13"/>
@@ -20892,7 +21025,7 @@
       <c r="AC344" s="13"/>
       <c r="AD344" s="13"/>
     </row>
-    <row r="345" spans="1:30">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" s="13"/>
       <c r="B345" s="13"/>
       <c r="C345" s="13"/>
@@ -20924,7 +21057,7 @@
       <c r="AC345" s="13"/>
       <c r="AD345" s="13"/>
     </row>
-    <row r="346" spans="1:30">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" s="13"/>
       <c r="B346" s="13"/>
       <c r="C346" s="13"/>
@@ -20956,7 +21089,7 @@
       <c r="AC346" s="13"/>
       <c r="AD346" s="13"/>
     </row>
-    <row r="347" spans="1:30">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" s="13"/>
       <c r="B347" s="13"/>
       <c r="C347" s="13"/>
@@ -20988,7 +21121,7 @@
       <c r="AC347" s="13"/>
       <c r="AD347" s="13"/>
     </row>
-    <row r="348" spans="1:30">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" s="13"/>
       <c r="B348" s="13"/>
       <c r="C348" s="13"/>
@@ -21020,7 +21153,7 @@
       <c r="AC348" s="13"/>
       <c r="AD348" s="13"/>
     </row>
-    <row r="349" spans="1:30">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" s="13"/>
       <c r="B349" s="13"/>
       <c r="C349" s="13"/>
@@ -21052,7 +21185,7 @@
       <c r="AC349" s="13"/>
       <c r="AD349" s="13"/>
     </row>
-    <row r="350" spans="1:30">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" s="13"/>
       <c r="B350" s="13"/>
       <c r="C350" s="13"/>
@@ -21084,7 +21217,7 @@
       <c r="AC350" s="13"/>
       <c r="AD350" s="13"/>
     </row>
-    <row r="351" spans="1:30">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" s="13"/>
       <c r="B351" s="13"/>
       <c r="C351" s="13"/>
@@ -21116,7 +21249,7 @@
       <c r="AC351" s="13"/>
       <c r="AD351" s="13"/>
     </row>
-    <row r="352" spans="1:30">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" s="13"/>
       <c r="B352" s="13"/>
       <c r="C352" s="13"/>
@@ -21148,7 +21281,7 @@
       <c r="AC352" s="13"/>
       <c r="AD352" s="13"/>
     </row>
-    <row r="353" spans="1:30">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" s="13"/>
       <c r="B353" s="13"/>
       <c r="C353" s="13"/>
@@ -21180,7 +21313,7 @@
       <c r="AC353" s="13"/>
       <c r="AD353" s="13"/>
     </row>
-    <row r="354" spans="1:30">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" s="13"/>
       <c r="B354" s="13"/>
       <c r="C354" s="13"/>
@@ -21212,7 +21345,7 @@
       <c r="AC354" s="13"/>
       <c r="AD354" s="13"/>
     </row>
-    <row r="355" spans="1:30">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" s="13"/>
       <c r="B355" s="13"/>
       <c r="C355" s="13"/>
@@ -21244,7 +21377,7 @@
       <c r="AC355" s="13"/>
       <c r="AD355" s="13"/>
     </row>
-    <row r="356" spans="1:30">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" s="13"/>
       <c r="B356" s="13"/>
       <c r="C356" s="13"/>
@@ -21276,7 +21409,7 @@
       <c r="AC356" s="13"/>
       <c r="AD356" s="13"/>
     </row>
-    <row r="357" spans="1:30">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" s="13"/>
       <c r="B357" s="13"/>
       <c r="C357" s="13"/>
@@ -21308,7 +21441,7 @@
       <c r="AC357" s="13"/>
       <c r="AD357" s="13"/>
     </row>
-    <row r="358" spans="1:30">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" s="13"/>
       <c r="B358" s="13"/>
       <c r="C358" s="13"/>
@@ -21340,7 +21473,7 @@
       <c r="AC358" s="13"/>
       <c r="AD358" s="13"/>
     </row>
-    <row r="359" spans="1:30">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" s="13"/>
       <c r="B359" s="13"/>
       <c r="C359" s="13"/>
@@ -21372,7 +21505,7 @@
       <c r="AC359" s="13"/>
       <c r="AD359" s="13"/>
     </row>
-    <row r="360" spans="1:30">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" s="13"/>
       <c r="B360" s="13"/>
       <c r="C360" s="13"/>
@@ -21404,7 +21537,7 @@
       <c r="AC360" s="13"/>
       <c r="AD360" s="13"/>
     </row>
-    <row r="361" spans="1:30">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" s="13"/>
       <c r="B361" s="13"/>
       <c r="C361" s="13"/>
@@ -21436,7 +21569,7 @@
       <c r="AC361" s="13"/>
       <c r="AD361" s="13"/>
     </row>
-    <row r="362" spans="1:30">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" s="13"/>
       <c r="B362" s="13"/>
       <c r="C362" s="13"/>
@@ -21468,7 +21601,7 @@
       <c r="AC362" s="13"/>
       <c r="AD362" s="13"/>
     </row>
-    <row r="363" spans="1:30">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" s="13"/>
       <c r="B363" s="13"/>
       <c r="C363" s="13"/>
@@ -21500,7 +21633,7 @@
       <c r="AC363" s="13"/>
       <c r="AD363" s="13"/>
     </row>
-    <row r="364" spans="1:30">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" s="13"/>
       <c r="B364" s="13"/>
       <c r="C364" s="13"/>
@@ -21532,7 +21665,7 @@
       <c r="AC364" s="13"/>
       <c r="AD364" s="13"/>
     </row>
-    <row r="365" spans="1:30">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" s="13"/>
       <c r="B365" s="13"/>
       <c r="C365" s="13"/>
@@ -21564,7 +21697,7 @@
       <c r="AC365" s="13"/>
       <c r="AD365" s="13"/>
     </row>
-    <row r="366" spans="1:30">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" s="13"/>
       <c r="B366" s="13"/>
       <c r="C366" s="13"/>
@@ -21596,7 +21729,7 @@
       <c r="AC366" s="13"/>
       <c r="AD366" s="13"/>
     </row>
-    <row r="367" spans="1:30">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" s="13"/>
       <c r="B367" s="13"/>
       <c r="C367" s="13"/>
@@ -21628,7 +21761,7 @@
       <c r="AC367" s="13"/>
       <c r="AD367" s="13"/>
     </row>
-    <row r="368" spans="1:30">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" s="13"/>
       <c r="B368" s="13"/>
       <c r="C368" s="13"/>
@@ -21660,7 +21793,7 @@
       <c r="AC368" s="13"/>
       <c r="AD368" s="13"/>
     </row>
-    <row r="369" spans="1:30">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" s="13"/>
       <c r="B369" s="13"/>
       <c r="C369" s="13"/>
@@ -21692,7 +21825,7 @@
       <c r="AC369" s="13"/>
       <c r="AD369" s="13"/>
     </row>
-    <row r="370" spans="1:30">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" s="13"/>
       <c r="B370" s="13"/>
       <c r="C370" s="13"/>
@@ -21724,7 +21857,7 @@
       <c r="AC370" s="13"/>
       <c r="AD370" s="13"/>
     </row>
-    <row r="371" spans="1:30">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" s="13"/>
       <c r="B371" s="13"/>
       <c r="C371" s="13"/>
@@ -21756,7 +21889,7 @@
       <c r="AC371" s="13"/>
       <c r="AD371" s="13"/>
     </row>
-    <row r="372" spans="1:30">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" s="13"/>
       <c r="B372" s="13"/>
       <c r="C372" s="13"/>
@@ -21788,7 +21921,7 @@
       <c r="AC372" s="13"/>
       <c r="AD372" s="13"/>
     </row>
-    <row r="373" spans="1:30">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" s="13"/>
       <c r="B373" s="13"/>
       <c r="C373" s="13"/>
@@ -21820,7 +21953,7 @@
       <c r="AC373" s="13"/>
       <c r="AD373" s="13"/>
     </row>
-    <row r="374" spans="1:30">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" s="13"/>
       <c r="B374" s="13"/>
       <c r="C374" s="13"/>
@@ -21852,7 +21985,7 @@
       <c r="AC374" s="13"/>
       <c r="AD374" s="13"/>
     </row>
-    <row r="375" spans="1:30">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" s="13"/>
       <c r="B375" s="13"/>
       <c r="C375" s="13"/>
@@ -21884,7 +22017,7 @@
       <c r="AC375" s="13"/>
       <c r="AD375" s="13"/>
     </row>
-    <row r="376" spans="1:30">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" s="13"/>
       <c r="B376" s="13"/>
       <c r="C376" s="13"/>
@@ -21916,7 +22049,7 @@
       <c r="AC376" s="13"/>
       <c r="AD376" s="13"/>
     </row>
-    <row r="377" spans="1:30">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" s="13"/>
       <c r="B377" s="13"/>
       <c r="C377" s="13"/>
@@ -21948,7 +22081,7 @@
       <c r="AC377" s="13"/>
       <c r="AD377" s="13"/>
     </row>
-    <row r="378" spans="1:30">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" s="13"/>
       <c r="B378" s="13"/>
       <c r="C378" s="13"/>
@@ -21980,7 +22113,7 @@
       <c r="AC378" s="13"/>
       <c r="AD378" s="13"/>
     </row>
-    <row r="379" spans="1:30">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" s="13"/>
       <c r="B379" s="13"/>
       <c r="C379" s="13"/>
@@ -22012,7 +22145,7 @@
       <c r="AC379" s="13"/>
       <c r="AD379" s="13"/>
     </row>
-    <row r="380" spans="1:30">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" s="13"/>
       <c r="B380" s="13"/>
       <c r="C380" s="13"/>
@@ -22044,7 +22177,7 @@
       <c r="AC380" s="13"/>
       <c r="AD380" s="13"/>
     </row>
-    <row r="381" spans="1:30">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" s="13"/>
       <c r="B381" s="13"/>
       <c r="C381" s="13"/>
@@ -22076,7 +22209,7 @@
       <c r="AC381" s="13"/>
       <c r="AD381" s="13"/>
     </row>
-    <row r="382" spans="1:30">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" s="13"/>
       <c r="B382" s="13"/>
       <c r="C382" s="13"/>
@@ -22108,7 +22241,7 @@
       <c r="AC382" s="13"/>
       <c r="AD382" s="13"/>
     </row>
-    <row r="383" spans="1:30">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" s="13"/>
       <c r="B383" s="13"/>
       <c r="C383" s="13"/>
@@ -22140,7 +22273,7 @@
       <c r="AC383" s="13"/>
       <c r="AD383" s="13"/>
     </row>
-    <row r="384" spans="1:30">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" s="13"/>
       <c r="B384" s="13"/>
       <c r="C384" s="13"/>
@@ -22172,7 +22305,7 @@
       <c r="AC384" s="13"/>
       <c r="AD384" s="13"/>
     </row>
-    <row r="385" spans="1:30">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" s="13"/>
       <c r="B385" s="13"/>
       <c r="C385" s="13"/>
@@ -22204,7 +22337,7 @@
       <c r="AC385" s="13"/>
       <c r="AD385" s="13"/>
     </row>
-    <row r="386" spans="1:30">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" s="13"/>
       <c r="B386" s="13"/>
       <c r="C386" s="13"/>
@@ -22236,7 +22369,7 @@
       <c r="AC386" s="13"/>
       <c r="AD386" s="13"/>
     </row>
-    <row r="387" spans="1:30">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" s="13"/>
       <c r="B387" s="13"/>
       <c r="C387" s="13"/>
@@ -22268,7 +22401,7 @@
       <c r="AC387" s="13"/>
       <c r="AD387" s="13"/>
     </row>
-    <row r="388" spans="1:30">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" s="13"/>
       <c r="B388" s="13"/>
       <c r="C388" s="13"/>
@@ -22300,7 +22433,7 @@
       <c r="AC388" s="13"/>
       <c r="AD388" s="13"/>
     </row>
-    <row r="389" spans="1:30">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" s="13"/>
       <c r="B389" s="13"/>
       <c r="C389" s="13"/>
@@ -22332,7 +22465,7 @@
       <c r="AC389" s="13"/>
       <c r="AD389" s="13"/>
     </row>
-    <row r="390" spans="1:30">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" s="13"/>
       <c r="B390" s="13"/>
       <c r="C390" s="13"/>
@@ -22364,7 +22497,7 @@
       <c r="AC390" s="13"/>
       <c r="AD390" s="13"/>
     </row>
-    <row r="391" spans="1:30">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" s="13"/>
       <c r="B391" s="13"/>
       <c r="C391" s="13"/>
@@ -22396,7 +22529,7 @@
       <c r="AC391" s="13"/>
       <c r="AD391" s="13"/>
     </row>
-    <row r="392" spans="1:30">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" s="13"/>
       <c r="B392" s="13"/>
       <c r="C392" s="13"/>
@@ -22428,7 +22561,7 @@
       <c r="AC392" s="13"/>
       <c r="AD392" s="13"/>
     </row>
-    <row r="393" spans="1:30">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" s="13"/>
       <c r="B393" s="13"/>
       <c r="C393" s="13"/>
@@ -22460,7 +22593,7 @@
       <c r="AC393" s="13"/>
       <c r="AD393" s="13"/>
     </row>
-    <row r="394" spans="1:30">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" s="13"/>
       <c r="B394" s="13"/>
       <c r="C394" s="13"/>
@@ -22492,7 +22625,7 @@
       <c r="AC394" s="13"/>
       <c r="AD394" s="13"/>
     </row>
-    <row r="395" spans="1:30">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" s="13"/>
       <c r="B395" s="13"/>
       <c r="C395" s="13"/>
@@ -22524,7 +22657,7 @@
       <c r="AC395" s="13"/>
       <c r="AD395" s="13"/>
     </row>
-    <row r="396" spans="1:30">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" s="13"/>
       <c r="B396" s="13"/>
       <c r="C396" s="13"/>
@@ -22556,7 +22689,7 @@
       <c r="AC396" s="13"/>
       <c r="AD396" s="13"/>
     </row>
-    <row r="397" spans="1:30">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" s="13"/>
       <c r="B397" s="13"/>
       <c r="C397" s="13"/>
@@ -22588,7 +22721,7 @@
       <c r="AC397" s="13"/>
       <c r="AD397" s="13"/>
     </row>
-    <row r="398" spans="1:30">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" s="13"/>
       <c r="B398" s="13"/>
       <c r="C398" s="13"/>
@@ -22620,7 +22753,7 @@
       <c r="AC398" s="13"/>
       <c r="AD398" s="13"/>
     </row>
-    <row r="399" spans="1:30">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" s="13"/>
       <c r="B399" s="13"/>
       <c r="C399" s="13"/>
@@ -22652,7 +22785,7 @@
       <c r="AC399" s="13"/>
       <c r="AD399" s="13"/>
     </row>
-    <row r="400" spans="1:30">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" s="13"/>
       <c r="B400" s="13"/>
       <c r="C400" s="13"/>
@@ -22684,7 +22817,7 @@
       <c r="AC400" s="13"/>
       <c r="AD400" s="13"/>
     </row>
-    <row r="401" spans="1:30">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" s="13"/>
       <c r="B401" s="13"/>
       <c r="C401" s="13"/>
@@ -22716,7 +22849,7 @@
       <c r="AC401" s="13"/>
       <c r="AD401" s="13"/>
     </row>
-    <row r="402" spans="1:30">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" s="13"/>
       <c r="B402" s="13"/>
       <c r="C402" s="13"/>
@@ -22748,7 +22881,7 @@
       <c r="AC402" s="13"/>
       <c r="AD402" s="13"/>
     </row>
-    <row r="403" spans="1:30">
+    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A403" s="13"/>
       <c r="B403" s="13"/>
       <c r="C403" s="13"/>
@@ -22780,7 +22913,7 @@
       <c r="AC403" s="13"/>
       <c r="AD403" s="13"/>
     </row>
-    <row r="404" spans="1:30">
+    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A404" s="13"/>
       <c r="B404" s="13"/>
       <c r="C404" s="13"/>
@@ -22812,7 +22945,7 @@
       <c r="AC404" s="13"/>
       <c r="AD404" s="13"/>
     </row>
-    <row r="405" spans="1:30">
+    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A405" s="13"/>
       <c r="B405" s="13"/>
       <c r="C405" s="13"/>
@@ -22844,7 +22977,7 @@
       <c r="AC405" s="13"/>
       <c r="AD405" s="13"/>
     </row>
-    <row r="406" spans="1:30">
+    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A406" s="13"/>
       <c r="B406" s="13"/>
       <c r="C406" s="13"/>
@@ -22876,7 +23009,7 @@
       <c r="AC406" s="13"/>
       <c r="AD406" s="13"/>
     </row>
-    <row r="407" spans="1:30">
+    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A407" s="13"/>
       <c r="B407" s="13"/>
       <c r="C407" s="13"/>
@@ -22908,7 +23041,7 @@
       <c r="AC407" s="13"/>
       <c r="AD407" s="13"/>
     </row>
-    <row r="408" spans="1:30">
+    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A408" s="13"/>
       <c r="B408" s="13"/>
       <c r="C408" s="13"/>
@@ -22940,7 +23073,7 @@
       <c r="AC408" s="13"/>
       <c r="AD408" s="13"/>
     </row>
-    <row r="409" spans="1:30">
+    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A409" s="13"/>
       <c r="B409" s="13"/>
       <c r="C409" s="13"/>
@@ -22972,7 +23105,7 @@
       <c r="AC409" s="13"/>
       <c r="AD409" s="13"/>
     </row>
-    <row r="410" spans="1:30">
+    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A410" s="13"/>
       <c r="B410" s="13"/>
       <c r="C410" s="13"/>
@@ -23004,7 +23137,7 @@
       <c r="AC410" s="13"/>
       <c r="AD410" s="13"/>
     </row>
-    <row r="411" spans="1:30">
+    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A411" s="13"/>
       <c r="B411" s="13"/>
       <c r="C411" s="13"/>
@@ -23036,7 +23169,7 @@
       <c r="AC411" s="13"/>
       <c r="AD411" s="13"/>
     </row>
-    <row r="412" spans="1:30">
+    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A412" s="13"/>
       <c r="B412" s="13"/>
       <c r="C412" s="13"/>
@@ -23068,7 +23201,7 @@
       <c r="AC412" s="13"/>
       <c r="AD412" s="13"/>
     </row>
-    <row r="413" spans="1:30">
+    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A413" s="13"/>
       <c r="B413" s="13"/>
       <c r="C413" s="13"/>
@@ -23100,7 +23233,7 @@
       <c r="AC413" s="13"/>
       <c r="AD413" s="13"/>
     </row>
-    <row r="414" spans="1:30">
+    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A414" s="13"/>
       <c r="B414" s="13"/>
       <c r="C414" s="13"/>
@@ -23132,7 +23265,7 @@
       <c r="AC414" s="13"/>
       <c r="AD414" s="13"/>
     </row>
-    <row r="415" spans="1:30">
+    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A415" s="13"/>
       <c r="B415" s="13"/>
       <c r="C415" s="13"/>
@@ -23164,7 +23297,7 @@
       <c r="AC415" s="13"/>
       <c r="AD415" s="13"/>
     </row>
-    <row r="416" spans="1:30">
+    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A416" s="13"/>
       <c r="B416" s="13"/>
       <c r="C416" s="13"/>
@@ -23196,7 +23329,7 @@
       <c r="AC416" s="13"/>
       <c r="AD416" s="13"/>
     </row>
-    <row r="417" spans="1:30">
+    <row r="417" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A417" s="13"/>
       <c r="B417" s="13"/>
       <c r="C417" s="13"/>
@@ -23228,7 +23361,7 @@
       <c r="AC417" s="13"/>
       <c r="AD417" s="13"/>
     </row>
-    <row r="418" spans="1:30">
+    <row r="418" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A418" s="13"/>
       <c r="B418" s="13"/>
       <c r="C418" s="13"/>
@@ -23260,7 +23393,7 @@
       <c r="AC418" s="13"/>
       <c r="AD418" s="13"/>
     </row>
-    <row r="419" spans="1:30">
+    <row r="419" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A419" s="13"/>
       <c r="B419" s="13"/>
       <c r="C419" s="13"/>
@@ -23292,7 +23425,7 @@
       <c r="AC419" s="13"/>
       <c r="AD419" s="13"/>
     </row>
-    <row r="420" spans="1:30">
+    <row r="420" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A420" s="13"/>
       <c r="B420" s="13"/>
       <c r="C420" s="13"/>
@@ -23324,7 +23457,7 @@
       <c r="AC420" s="13"/>
       <c r="AD420" s="13"/>
     </row>
-    <row r="421" spans="1:30">
+    <row r="421" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A421" s="13"/>
       <c r="B421" s="13"/>
       <c r="C421" s="13"/>
@@ -23356,7 +23489,7 @@
       <c r="AC421" s="13"/>
       <c r="AD421" s="13"/>
     </row>
-    <row r="422" spans="1:30">
+    <row r="422" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A422" s="13"/>
       <c r="B422" s="13"/>
       <c r="C422" s="13"/>
@@ -23388,7 +23521,7 @@
       <c r="AC422" s="13"/>
       <c r="AD422" s="13"/>
     </row>
-    <row r="423" spans="1:30">
+    <row r="423" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A423" s="13"/>
       <c r="B423" s="13"/>
       <c r="C423" s="13"/>
@@ -23420,7 +23553,7 @@
       <c r="AC423" s="13"/>
       <c r="AD423" s="13"/>
     </row>
-    <row r="424" spans="1:30">
+    <row r="424" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A424" s="13"/>
       <c r="B424" s="13"/>
       <c r="C424" s="13"/>
@@ -23452,7 +23585,7 @@
       <c r="AC424" s="13"/>
       <c r="AD424" s="13"/>
     </row>
-    <row r="425" spans="1:30">
+    <row r="425" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A425" s="13"/>
       <c r="B425" s="13"/>
       <c r="C425" s="13"/>
@@ -23484,7 +23617,7 @@
       <c r="AC425" s="13"/>
       <c r="AD425" s="13"/>
     </row>
-    <row r="426" spans="1:30">
+    <row r="426" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A426" s="13"/>
       <c r="B426" s="13"/>
       <c r="C426" s="13"/>
@@ -23516,7 +23649,7 @@
       <c r="AC426" s="13"/>
       <c r="AD426" s="13"/>
     </row>
-    <row r="427" spans="1:30">
+    <row r="427" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A427" s="13"/>
       <c r="B427" s="13"/>
       <c r="C427" s="13"/>
@@ -23548,7 +23681,7 @@
       <c r="AC427" s="13"/>
       <c r="AD427" s="13"/>
     </row>
-    <row r="428" spans="1:30">
+    <row r="428" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A428" s="13"/>
       <c r="B428" s="13"/>
       <c r="C428" s="13"/>
@@ -23580,7 +23713,7 @@
       <c r="AC428" s="13"/>
       <c r="AD428" s="13"/>
     </row>
-    <row r="429" spans="1:30">
+    <row r="429" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A429" s="13"/>
       <c r="B429" s="13"/>
       <c r="C429" s="13"/>
@@ -23612,7 +23745,7 @@
       <c r="AC429" s="13"/>
       <c r="AD429" s="13"/>
     </row>
-    <row r="430" spans="1:30">
+    <row r="430" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A430" s="13"/>
       <c r="B430" s="13"/>
       <c r="C430" s="13"/>
@@ -23644,7 +23777,7 @@
       <c r="AC430" s="13"/>
       <c r="AD430" s="13"/>
     </row>
-    <row r="431" spans="1:30">
+    <row r="431" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A431" s="13"/>
       <c r="B431" s="13"/>
       <c r="C431" s="13"/>
@@ -23676,7 +23809,7 @@
       <c r="AC431" s="13"/>
       <c r="AD431" s="13"/>
     </row>
-    <row r="432" spans="1:30">
+    <row r="432" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A432" s="13"/>
       <c r="B432" s="13"/>
       <c r="C432" s="13"/>
@@ -23708,7 +23841,7 @@
       <c r="AC432" s="13"/>
       <c r="AD432" s="13"/>
     </row>
-    <row r="433" spans="1:30">
+    <row r="433" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A433" s="13"/>
       <c r="B433" s="13"/>
       <c r="C433" s="13"/>
@@ -23740,7 +23873,7 @@
       <c r="AC433" s="13"/>
       <c r="AD433" s="13"/>
     </row>
-    <row r="434" spans="1:30">
+    <row r="434" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A434" s="13"/>
       <c r="B434" s="13"/>
       <c r="C434" s="13"/>
@@ -23772,7 +23905,7 @@
       <c r="AC434" s="13"/>
       <c r="AD434" s="13"/>
     </row>
-    <row r="435" spans="1:30">
+    <row r="435" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A435" s="13"/>
       <c r="B435" s="13"/>
       <c r="C435" s="13"/>
@@ -23804,7 +23937,7 @@
       <c r="AC435" s="13"/>
       <c r="AD435" s="13"/>
     </row>
-    <row r="436" spans="1:30">
+    <row r="436" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A436" s="13"/>
       <c r="B436" s="13"/>
       <c r="C436" s="13"/>
@@ -23836,7 +23969,7 @@
       <c r="AC436" s="13"/>
       <c r="AD436" s="13"/>
     </row>
-    <row r="437" spans="1:30">
+    <row r="437" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A437" s="13"/>
       <c r="B437" s="13"/>
       <c r="C437" s="13"/>
@@ -23868,7 +24001,7 @@
       <c r="AC437" s="13"/>
       <c r="AD437" s="13"/>
     </row>
-    <row r="438" spans="1:30">
+    <row r="438" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A438" s="13"/>
       <c r="B438" s="13"/>
       <c r="C438" s="13"/>
@@ -23900,7 +24033,7 @@
       <c r="AC438" s="13"/>
       <c r="AD438" s="13"/>
     </row>
-    <row r="439" spans="1:30">
+    <row r="439" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A439" s="13"/>
       <c r="B439" s="13"/>
       <c r="C439" s="13"/>
@@ -23932,7 +24065,7 @@
       <c r="AC439" s="13"/>
       <c r="AD439" s="13"/>
     </row>
-    <row r="440" spans="1:30">
+    <row r="440" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A440" s="13"/>
       <c r="B440" s="13"/>
       <c r="C440" s="13"/>
@@ -23964,7 +24097,7 @@
       <c r="AC440" s="13"/>
       <c r="AD440" s="13"/>
     </row>
-    <row r="441" spans="1:30">
+    <row r="441" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A441" s="13"/>
       <c r="B441" s="13"/>
       <c r="C441" s="13"/>
@@ -23996,7 +24129,7 @@
       <c r="AC441" s="13"/>
       <c r="AD441" s="13"/>
     </row>
-    <row r="442" spans="1:30">
+    <row r="442" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A442" s="13"/>
       <c r="B442" s="13"/>
       <c r="C442" s="13"/>
@@ -24028,7 +24161,7 @@
       <c r="AC442" s="13"/>
       <c r="AD442" s="13"/>
     </row>
-    <row r="443" spans="1:30">
+    <row r="443" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A443" s="13"/>
       <c r="B443" s="13"/>
       <c r="C443" s="13"/>
@@ -24060,7 +24193,7 @@
       <c r="AC443" s="13"/>
       <c r="AD443" s="13"/>
     </row>
-    <row r="444" spans="1:30">
+    <row r="444" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A444" s="13"/>
       <c r="B444" s="13"/>
       <c r="C444" s="13"/>
@@ -24092,7 +24225,7 @@
       <c r="AC444" s="13"/>
       <c r="AD444" s="13"/>
     </row>
-    <row r="445" spans="1:30">
+    <row r="445" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A445" s="13"/>
       <c r="B445" s="13"/>
       <c r="C445" s="13"/>
@@ -24124,7 +24257,7 @@
       <c r="AC445" s="13"/>
       <c r="AD445" s="13"/>
     </row>
-    <row r="446" spans="1:30">
+    <row r="446" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A446" s="13"/>
       <c r="B446" s="13"/>
       <c r="C446" s="13"/>
@@ -24156,7 +24289,7 @@
       <c r="AC446" s="13"/>
       <c r="AD446" s="13"/>
     </row>
-    <row r="447" spans="1:30">
+    <row r="447" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A447" s="13"/>
       <c r="B447" s="13"/>
       <c r="C447" s="13"/>
@@ -24188,7 +24321,7 @@
       <c r="AC447" s="13"/>
       <c r="AD447" s="13"/>
     </row>
-    <row r="448" spans="1:30">
+    <row r="448" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A448" s="13"/>
       <c r="B448" s="13"/>
       <c r="C448" s="13"/>
@@ -24220,7 +24353,7 @@
       <c r="AC448" s="13"/>
       <c r="AD448" s="13"/>
     </row>
-    <row r="449" spans="1:30">
+    <row r="449" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A449" s="13"/>
       <c r="B449" s="13"/>
       <c r="C449" s="13"/>
@@ -24252,7 +24385,7 @@
       <c r="AC449" s="13"/>
       <c r="AD449" s="13"/>
     </row>
-    <row r="450" spans="1:30">
+    <row r="450" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A450" s="13"/>
       <c r="B450" s="13"/>
       <c r="C450" s="13"/>
@@ -24284,7 +24417,7 @@
       <c r="AC450" s="13"/>
       <c r="AD450" s="13"/>
     </row>
-    <row r="451" spans="1:30">
+    <row r="451" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A451" s="13"/>
       <c r="B451" s="13"/>
       <c r="C451" s="13"/>
@@ -24316,7 +24449,7 @@
       <c r="AC451" s="13"/>
       <c r="AD451" s="13"/>
     </row>
-    <row r="452" spans="1:30">
+    <row r="452" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A452" s="13"/>
       <c r="B452" s="13"/>
       <c r="C452" s="13"/>
@@ -24348,7 +24481,7 @@
       <c r="AC452" s="13"/>
       <c r="AD452" s="13"/>
     </row>
-    <row r="453" spans="1:30">
+    <row r="453" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A453" s="13"/>
       <c r="B453" s="13"/>
       <c r="C453" s="13"/>
@@ -24380,7 +24513,7 @@
       <c r="AC453" s="13"/>
       <c r="AD453" s="13"/>
     </row>
-    <row r="454" spans="1:30">
+    <row r="454" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A454" s="13"/>
       <c r="B454" s="13"/>
       <c r="C454" s="13"/>
@@ -24412,7 +24545,7 @@
       <c r="AC454" s="13"/>
       <c r="AD454" s="13"/>
     </row>
-    <row r="455" spans="1:30">
+    <row r="455" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A455" s="13"/>
       <c r="B455" s="13"/>
       <c r="C455" s="13"/>
@@ -24444,7 +24577,7 @@
       <c r="AC455" s="13"/>
       <c r="AD455" s="13"/>
     </row>
-    <row r="456" spans="1:30">
+    <row r="456" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A456" s="13"/>
       <c r="B456" s="13"/>
       <c r="C456" s="13"/>
@@ -24476,7 +24609,7 @@
       <c r="AC456" s="13"/>
       <c r="AD456" s="13"/>
     </row>
-    <row r="457" spans="1:30">
+    <row r="457" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A457" s="13"/>
       <c r="B457" s="13"/>
       <c r="C457" s="13"/>
@@ -24508,7 +24641,7 @@
       <c r="AC457" s="13"/>
       <c r="AD457" s="13"/>
     </row>
-    <row r="458" spans="1:30">
+    <row r="458" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A458" s="13"/>
       <c r="B458" s="13"/>
       <c r="C458" s="13"/>
@@ -24540,7 +24673,7 @@
       <c r="AC458" s="13"/>
       <c r="AD458" s="13"/>
     </row>
-    <row r="459" spans="1:30">
+    <row r="459" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A459" s="13"/>
       <c r="B459" s="13"/>
       <c r="C459" s="13"/>
@@ -24572,7 +24705,7 @@
       <c r="AC459" s="13"/>
       <c r="AD459" s="13"/>
     </row>
-    <row r="460" spans="1:30">
+    <row r="460" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A460" s="13"/>
       <c r="B460" s="13"/>
       <c r="C460" s="13"/>
@@ -24604,7 +24737,7 @@
       <c r="AC460" s="13"/>
       <c r="AD460" s="13"/>
     </row>
-    <row r="461" spans="1:30">
+    <row r="461" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A461" s="13"/>
       <c r="B461" s="13"/>
       <c r="C461" s="13"/>
@@ -24636,7 +24769,7 @@
       <c r="AC461" s="13"/>
       <c r="AD461" s="13"/>
     </row>
-    <row r="462" spans="1:30">
+    <row r="462" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A462" s="13"/>
       <c r="B462" s="13"/>
       <c r="C462" s="13"/>
@@ -24668,7 +24801,7 @@
       <c r="AC462" s="13"/>
       <c r="AD462" s="13"/>
     </row>
-    <row r="463" spans="1:30">
+    <row r="463" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A463" s="13"/>
       <c r="B463" s="13"/>
       <c r="C463" s="13"/>
@@ -24700,7 +24833,7 @@
       <c r="AC463" s="13"/>
       <c r="AD463" s="13"/>
     </row>
-    <row r="464" spans="1:30">
+    <row r="464" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A464" s="13"/>
       <c r="B464" s="13"/>
       <c r="C464" s="13"/>
@@ -24732,7 +24865,7 @@
       <c r="AC464" s="13"/>
       <c r="AD464" s="13"/>
     </row>
-    <row r="465" spans="1:30">
+    <row r="465" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A465" s="13"/>
       <c r="B465" s="13"/>
       <c r="C465" s="13"/>
@@ -24764,7 +24897,7 @@
       <c r="AC465" s="13"/>
       <c r="AD465" s="13"/>
     </row>
-    <row r="466" spans="1:30">
+    <row r="466" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A466" s="13"/>
       <c r="B466" s="13"/>
       <c r="C466" s="13"/>
@@ -24796,7 +24929,7 @@
       <c r="AC466" s="13"/>
       <c r="AD466" s="13"/>
     </row>
-    <row r="467" spans="1:30">
+    <row r="467" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A467" s="13"/>
       <c r="B467" s="13"/>
       <c r="C467" s="13"/>
@@ -24828,7 +24961,7 @@
       <c r="AC467" s="13"/>
       <c r="AD467" s="13"/>
     </row>
-    <row r="468" spans="1:30">
+    <row r="468" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A468" s="13"/>
       <c r="B468" s="13"/>
       <c r="C468" s="13"/>
@@ -24860,7 +24993,7 @@
       <c r="AC468" s="13"/>
       <c r="AD468" s="13"/>
     </row>
-    <row r="469" spans="1:30">
+    <row r="469" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A469" s="13"/>
       <c r="B469" s="13"/>
       <c r="C469" s="13"/>
@@ -24892,7 +25025,7 @@
       <c r="AC469" s="13"/>
       <c r="AD469" s="13"/>
     </row>
-    <row r="470" spans="1:30">
+    <row r="470" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A470" s="13"/>
       <c r="B470" s="13"/>
       <c r="C470" s="13"/>
@@ -24924,7 +25057,7 @@
       <c r="AC470" s="13"/>
       <c r="AD470" s="13"/>
     </row>
-    <row r="471" spans="1:30">
+    <row r="471" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A471" s="13"/>
       <c r="B471" s="13"/>
       <c r="C471" s="13"/>
@@ -24956,7 +25089,7 @@
       <c r="AC471" s="13"/>
       <c r="AD471" s="13"/>
     </row>
-    <row r="472" spans="1:30">
+    <row r="472" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A472" s="13"/>
       <c r="B472" s="13"/>
       <c r="C472" s="13"/>
@@ -24988,7 +25121,7 @@
       <c r="AC472" s="13"/>
       <c r="AD472" s="13"/>
     </row>
-    <row r="473" spans="1:30">
+    <row r="473" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A473" s="13"/>
       <c r="B473" s="13"/>
       <c r="C473" s="13"/>
@@ -25020,7 +25153,7 @@
       <c r="AC473" s="13"/>
       <c r="AD473" s="13"/>
     </row>
-    <row r="474" spans="1:30">
+    <row r="474" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A474" s="13"/>
       <c r="B474" s="13"/>
       <c r="C474" s="13"/>
@@ -25052,7 +25185,7 @@
       <c r="AC474" s="13"/>
       <c r="AD474" s="13"/>
     </row>
-    <row r="475" spans="1:30">
+    <row r="475" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A475" s="13"/>
       <c r="B475" s="13"/>
       <c r="C475" s="13"/>
@@ -25084,7 +25217,7 @@
       <c r="AC475" s="13"/>
       <c r="AD475" s="13"/>
     </row>
-    <row r="476" spans="1:30">
+    <row r="476" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A476" s="13"/>
       <c r="B476" s="13"/>
       <c r="C476" s="13"/>
@@ -25116,7 +25249,7 @@
       <c r="AC476" s="13"/>
       <c r="AD476" s="13"/>
     </row>
-    <row r="477" spans="1:30">
+    <row r="477" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A477" s="13"/>
       <c r="B477" s="13"/>
       <c r="C477" s="13"/>
@@ -25148,7 +25281,7 @@
       <c r="AC477" s="13"/>
       <c r="AD477" s="13"/>
     </row>
-    <row r="478" spans="1:30">
+    <row r="478" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A478" s="13"/>
       <c r="B478" s="13"/>
       <c r="C478" s="13"/>
@@ -25180,7 +25313,7 @@
       <c r="AC478" s="13"/>
       <c r="AD478" s="13"/>
     </row>
-    <row r="479" spans="1:30">
+    <row r="479" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A479" s="13"/>
       <c r="B479" s="13"/>
       <c r="C479" s="13"/>
@@ -25212,7 +25345,7 @@
       <c r="AC479" s="13"/>
       <c r="AD479" s="13"/>
     </row>
-    <row r="480" spans="1:30">
+    <row r="480" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A480" s="13"/>
       <c r="B480" s="13"/>
       <c r="C480" s="13"/>
@@ -25244,7 +25377,7 @@
       <c r="AC480" s="13"/>
       <c r="AD480" s="13"/>
     </row>
-    <row r="481" spans="1:30">
+    <row r="481" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A481" s="13"/>
       <c r="B481" s="13"/>
       <c r="C481" s="13"/>
@@ -25276,7 +25409,7 @@
       <c r="AC481" s="13"/>
       <c r="AD481" s="13"/>
     </row>
-    <row r="482" spans="1:30">
+    <row r="482" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A482" s="13"/>
       <c r="B482" s="13"/>
       <c r="C482" s="13"/>
@@ -25308,7 +25441,7 @@
       <c r="AC482" s="13"/>
       <c r="AD482" s="13"/>
     </row>
-    <row r="483" spans="1:30">
+    <row r="483" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A483" s="13"/>
       <c r="B483" s="13"/>
       <c r="C483" s="13"/>
@@ -25340,7 +25473,7 @@
       <c r="AC483" s="13"/>
       <c r="AD483" s="13"/>
     </row>
-    <row r="484" spans="1:30">
+    <row r="484" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A484" s="13"/>
       <c r="B484" s="13"/>
       <c r="C484" s="13"/>
@@ -25372,7 +25505,7 @@
       <c r="AC484" s="13"/>
       <c r="AD484" s="13"/>
     </row>
-    <row r="485" spans="1:30">
+    <row r="485" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A485" s="13"/>
       <c r="B485" s="13"/>
       <c r="C485" s="13"/>
@@ -25404,7 +25537,7 @@
       <c r="AC485" s="13"/>
       <c r="AD485" s="13"/>
     </row>
-    <row r="486" spans="1:30">
+    <row r="486" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A486" s="13"/>
       <c r="B486" s="13"/>
       <c r="C486" s="13"/>
@@ -25436,7 +25569,7 @@
       <c r="AC486" s="13"/>
       <c r="AD486" s="13"/>
     </row>
-    <row r="487" spans="1:30">
+    <row r="487" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A487" s="13"/>
       <c r="B487" s="13"/>
       <c r="C487" s="13"/>
@@ -25468,7 +25601,7 @@
       <c r="AC487" s="13"/>
       <c r="AD487" s="13"/>
     </row>
-    <row r="488" spans="1:30">
+    <row r="488" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A488" s="13"/>
       <c r="B488" s="13"/>
       <c r="C488" s="13"/>
@@ -25500,7 +25633,7 @@
       <c r="AC488" s="13"/>
       <c r="AD488" s="13"/>
     </row>
-    <row r="489" spans="1:30">
+    <row r="489" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A489" s="13"/>
       <c r="B489" s="13"/>
       <c r="C489" s="13"/>
@@ -25532,7 +25665,7 @@
       <c r="AC489" s="13"/>
       <c r="AD489" s="13"/>
     </row>
-    <row r="490" spans="1:30">
+    <row r="490" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A490" s="13"/>
       <c r="B490" s="13"/>
       <c r="C490" s="13"/>
@@ -25564,7 +25697,7 @@
       <c r="AC490" s="13"/>
       <c r="AD490" s="13"/>
     </row>
-    <row r="491" spans="1:30">
+    <row r="491" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A491" s="13"/>
       <c r="B491" s="13"/>
       <c r="C491" s="13"/>
@@ -25596,7 +25729,7 @@
       <c r="AC491" s="13"/>
       <c r="AD491" s="13"/>
     </row>
-    <row r="492" spans="1:30">
+    <row r="492" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A492" s="13"/>
       <c r="B492" s="13"/>
       <c r="C492" s="13"/>
@@ -25628,7 +25761,7 @@
       <c r="AC492" s="13"/>
       <c r="AD492" s="13"/>
     </row>
-    <row r="493" spans="1:30">
+    <row r="493" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A493" s="13"/>
       <c r="B493" s="13"/>
       <c r="C493" s="13"/>
@@ -25660,7 +25793,7 @@
       <c r="AC493" s="13"/>
       <c r="AD493" s="13"/>
     </row>
-    <row r="494" spans="1:30">
+    <row r="494" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A494" s="13"/>
       <c r="B494" s="13"/>
       <c r="C494" s="13"/>
@@ -25692,7 +25825,7 @@
       <c r="AC494" s="13"/>
       <c r="AD494" s="13"/>
     </row>
-    <row r="495" spans="1:30">
+    <row r="495" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A495" s="13"/>
       <c r="B495" s="13"/>
       <c r="C495" s="13"/>
@@ -25724,7 +25857,7 @@
       <c r="AC495" s="13"/>
       <c r="AD495" s="13"/>
     </row>
-    <row r="496" spans="1:30">
+    <row r="496" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A496" s="13"/>
       <c r="B496" s="13"/>
       <c r="C496" s="13"/>
@@ -25756,7 +25889,7 @@
       <c r="AC496" s="13"/>
       <c r="AD496" s="13"/>
     </row>
-    <row r="497" spans="1:31">
+    <row r="497" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A497" s="13"/>
       <c r="B497" s="13"/>
       <c r="C497" s="13"/>
@@ -25788,7 +25921,7 @@
       <c r="AC497" s="13"/>
       <c r="AD497" s="13"/>
     </row>
-    <row r="498" spans="1:31">
+    <row r="498" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A498" s="13"/>
       <c r="B498" s="13"/>
       <c r="C498" s="13"/>
@@ -25820,7 +25953,7 @@
       <c r="AC498" s="13"/>
       <c r="AD498" s="13"/>
     </row>
-    <row r="499" spans="1:31">
+    <row r="499" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A499" s="13"/>
       <c r="B499" s="13"/>
       <c r="C499" s="13"/>
@@ -25852,7 +25985,7 @@
       <c r="AC499" s="13"/>
       <c r="AD499" s="13"/>
     </row>
-    <row r="500" spans="1:31">
+    <row r="500" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A500" s="13"/>
       <c r="B500" s="13"/>
       <c r="C500" s="13"/>
@@ -26036,10 +26169,10 @@
   <dimension ref="A1:AC385"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
@@ -26069,7 +26202,7 @@
     <col min="29" max="29" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="20" customFormat="1">
+    <row r="1" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
@@ -26158,7 +26291,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -26244,7 +26377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -26330,7 +26463,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -26410,7 +26543,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -26487,7 +26620,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -26561,7 +26694,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -26635,7 +26768,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -26709,7 +26842,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -26780,7 +26913,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -26854,7 +26987,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -26928,7 +27061,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>225</v>
       </c>
@@ -26996,7 +27129,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -27064,7 +27197,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>281</v>
       </c>
@@ -27132,7 +27265,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>316</v>
       </c>
@@ -27191,7 +27324,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>333</v>
       </c>
@@ -27253,7 +27386,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="4:29">
+    <row r="17" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>351</v>
       </c>
@@ -27312,7 +27445,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="4:29">
+    <row r="18" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>368</v>
       </c>
@@ -27371,7 +27504,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="4:29">
+    <row r="19" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>385</v>
       </c>
@@ -27381,6 +27514,9 @@
       <c r="F19" t="s">
         <v>189</v>
       </c>
+      <c r="G19">
+        <v>481459</v>
+      </c>
       <c r="O19" t="s">
         <v>387</v>
       </c>
@@ -27427,7 +27563,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="4:29">
+    <row r="20" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>402</v>
       </c>
@@ -27483,7 +27619,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="4:29">
+    <row r="21" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>419</v>
       </c>
@@ -27539,7 +27675,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="4:29">
+    <row r="22" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>437</v>
       </c>
@@ -27592,7 +27728,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="4:29">
+    <row r="23" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>454</v>
       </c>
@@ -27648,7 +27784,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="4:29">
+    <row r="24" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>472</v>
       </c>
@@ -27704,7 +27840,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="25" spans="4:29">
+    <row r="25" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>489</v>
       </c>
@@ -27760,7 +27896,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="4:29">
+    <row r="26" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>189</v>
       </c>
@@ -27816,7 +27952,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="27" spans="4:29">
+    <row r="27" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>521</v>
       </c>
@@ -27872,7 +28008,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="4:29">
+    <row r="28" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>537</v>
       </c>
@@ -27928,7 +28064,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="29" spans="4:29">
+    <row r="29" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>553</v>
       </c>
@@ -27984,7 +28120,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="30" spans="4:29">
+    <row r="30" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>570</v>
       </c>
@@ -28037,7 +28173,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="31" spans="4:29">
+    <row r="31" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>586</v>
       </c>
@@ -28093,7 +28229,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="4:29">
+    <row r="32" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>603</v>
       </c>
@@ -28149,7 +28285,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="33" spans="4:29">
+    <row r="33" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>619</v>
       </c>
@@ -28205,7 +28341,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="34" spans="4:29">
+    <row r="34" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>635</v>
       </c>
@@ -28261,7 +28397,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="35" spans="4:29">
+    <row r="35" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>651</v>
       </c>
@@ -28317,7 +28453,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="36" spans="4:29">
+    <row r="36" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>667</v>
       </c>
@@ -28373,7 +28509,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="37" spans="4:29">
+    <row r="37" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>683</v>
       </c>
@@ -28429,7 +28565,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="38" spans="4:29">
+    <row r="38" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>300</v>
       </c>
@@ -28485,7 +28621,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="39" spans="4:29">
+    <row r="39" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>716</v>
       </c>
@@ -28538,7 +28674,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="40" spans="4:29">
+    <row r="40" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>733</v>
       </c>
@@ -28594,7 +28730,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="4:29">
+    <row r="41" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>751</v>
       </c>
@@ -28650,7 +28786,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="42" spans="4:29">
+    <row r="42" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>768</v>
       </c>
@@ -28706,7 +28842,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="43" spans="4:29">
+    <row r="43" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>785</v>
       </c>
@@ -28762,7 +28898,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="44" spans="4:29">
+    <row r="44" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>802</v>
       </c>
@@ -28818,7 +28954,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="45" spans="4:29">
+    <row r="45" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>819</v>
       </c>
@@ -28874,7 +29010,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="46" spans="4:29">
+    <row r="46" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>836</v>
       </c>
@@ -28930,7 +29066,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="47" spans="4:29">
+    <row r="47" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>853</v>
       </c>
@@ -28986,7 +29122,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="48" spans="4:29">
+    <row r="48" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>870</v>
       </c>
@@ -29042,7 +29178,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="49" spans="4:29">
+    <row r="49" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>888</v>
       </c>
@@ -29095,7 +29231,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="50" spans="4:29">
+    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>421</v>
       </c>
@@ -29148,7 +29284,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="51" spans="4:29">
+    <row r="51" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>920</v>
       </c>
@@ -29201,7 +29337,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="52" spans="4:29">
+    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>936</v>
       </c>
@@ -29254,7 +29390,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="53" spans="4:29">
+    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>952</v>
       </c>
@@ -29307,7 +29443,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="54" spans="4:29">
+    <row r="54" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>968</v>
       </c>
@@ -29360,7 +29496,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="55" spans="4:29">
+    <row r="55" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>984</v>
       </c>
@@ -29413,7 +29549,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="56" spans="4:29">
+    <row r="56" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>1000</v>
       </c>
@@ -29466,7 +29602,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="57" spans="4:29">
+    <row r="57" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>1016</v>
       </c>
@@ -29519,7 +29655,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="58" spans="4:29">
+    <row r="58" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>1032</v>
       </c>
@@ -29572,7 +29708,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="59" spans="4:29">
+    <row r="59" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>1048</v>
       </c>
@@ -29625,7 +29761,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="60" spans="4:29">
+    <row r="60" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>1064</v>
       </c>
@@ -29678,7 +29814,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="61" spans="4:29">
+    <row r="61" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>1080</v>
       </c>
@@ -29731,7 +29867,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="62" spans="4:29">
+    <row r="62" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>554</v>
       </c>
@@ -29784,7 +29920,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="63" spans="4:29">
+    <row r="63" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>1112</v>
       </c>
@@ -29837,7 +29973,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="64" spans="4:29">
+    <row r="64" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>1129</v>
       </c>
@@ -29890,7 +30026,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="65" spans="4:29">
+    <row r="65" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>1146</v>
       </c>
@@ -29943,7 +30079,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="66" spans="4:29">
+    <row r="66" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>1163</v>
       </c>
@@ -29996,7 +30132,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="67" spans="4:29">
+    <row r="67" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
         <v>1180</v>
       </c>
@@ -30049,7 +30185,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="68" spans="4:29">
+    <row r="68" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>1197</v>
       </c>
@@ -30102,7 +30238,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="69" spans="4:29">
+    <row r="69" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>1214</v>
       </c>
@@ -30155,7 +30291,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="70" spans="4:29">
+    <row r="70" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
         <v>1231</v>
       </c>
@@ -30208,7 +30344,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="71" spans="4:29">
+    <row r="71" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
         <v>1248</v>
       </c>
@@ -30261,7 +30397,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="72" spans="4:29">
+    <row r="72" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
         <v>1265</v>
       </c>
@@ -30314,7 +30450,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="73" spans="4:29">
+    <row r="73" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
         <v>1282</v>
       </c>
@@ -30367,7 +30503,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="74" spans="4:29">
+    <row r="74" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>700</v>
       </c>
@@ -30420,7 +30556,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="75" spans="4:29">
+    <row r="75" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
         <v>1314</v>
       </c>
@@ -30473,7 +30609,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="76" spans="4:29">
+    <row r="76" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
         <v>1330</v>
       </c>
@@ -30526,7 +30662,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="77" spans="4:29">
+    <row r="77" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
         <v>1346</v>
       </c>
@@ -30579,7 +30715,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="78" spans="4:29">
+    <row r="78" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>1362</v>
       </c>
@@ -30632,7 +30768,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="79" spans="4:29">
+    <row r="79" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>1378</v>
       </c>
@@ -30685,7 +30821,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="80" spans="4:29">
+    <row r="80" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>1394</v>
       </c>
@@ -30738,7 +30874,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="81" spans="4:29">
+    <row r="81" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>1410</v>
       </c>
@@ -30791,7 +30927,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="82" spans="4:29">
+    <row r="82" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>1426</v>
       </c>
@@ -30844,7 +30980,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="83" spans="4:29">
+    <row r="83" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
         <v>1442</v>
       </c>
@@ -30897,7 +31033,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="84" spans="4:29">
+    <row r="84" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
         <v>1458</v>
       </c>
@@ -30950,7 +31086,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="85" spans="4:29">
+    <row r="85" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
         <v>1474</v>
       </c>
@@ -31003,7 +31139,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="86" spans="4:29">
+    <row r="86" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
         <v>872</v>
       </c>
@@ -31056,7 +31192,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="87" spans="4:29">
+    <row r="87" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
         <v>1506</v>
       </c>
@@ -31109,7 +31245,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="88" spans="4:29">
+    <row r="88" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>1523</v>
       </c>
@@ -31162,7 +31298,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="89" spans="4:29">
+    <row r="89" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
         <v>1540</v>
       </c>
@@ -31215,7 +31351,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="90" spans="4:29">
+    <row r="90" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
         <v>1557</v>
       </c>
@@ -31268,7 +31404,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="91" spans="4:29">
+    <row r="91" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
         <v>1574</v>
       </c>
@@ -31321,7 +31457,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="92" spans="4:29">
+    <row r="92" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
         <v>1591</v>
       </c>
@@ -31374,7 +31510,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="93" spans="4:29">
+    <row r="93" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
         <v>1608</v>
       </c>
@@ -31427,7 +31563,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="94" spans="4:29">
+    <row r="94" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
         <v>1625</v>
       </c>
@@ -31480,7 +31616,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="95" spans="4:29">
+    <row r="95" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>1642</v>
       </c>
@@ -31533,7 +31669,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="96" spans="4:29">
+    <row r="96" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
         <v>1659</v>
       </c>
@@ -31586,7 +31722,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="97" spans="4:29">
+    <row r="97" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
         <v>1676</v>
       </c>
@@ -31639,7 +31775,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="98" spans="4:29">
+    <row r="98" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E98" t="s">
         <v>421</v>
       </c>
@@ -31659,7 +31795,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="99" spans="4:29">
+    <row r="99" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E99" t="s">
         <v>920</v>
       </c>
@@ -31679,7 +31815,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="100" spans="4:29">
+    <row r="100" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E100" t="s">
         <v>936</v>
       </c>
@@ -31699,7 +31835,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="101" spans="4:29">
+    <row r="101" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E101" t="s">
         <v>952</v>
       </c>
@@ -31719,7 +31855,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="102" spans="4:29">
+    <row r="102" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E102" t="s">
         <v>968</v>
       </c>
@@ -31739,7 +31875,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="103" spans="4:29">
+    <row r="103" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E103" t="s">
         <v>984</v>
       </c>
@@ -31759,7 +31895,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="104" spans="4:29">
+    <row r="104" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E104" t="s">
         <v>1000</v>
       </c>
@@ -31779,7 +31915,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="105" spans="4:29">
+    <row r="105" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E105" t="s">
         <v>1016</v>
       </c>
@@ -31799,7 +31935,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="106" spans="4:29">
+    <row r="106" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E106" t="s">
         <v>1032</v>
       </c>
@@ -31819,7 +31955,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="107" spans="4:29">
+    <row r="107" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E107" t="s">
         <v>1048</v>
       </c>
@@ -31839,7 +31975,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="108" spans="4:29">
+    <row r="108" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E108" t="s">
         <v>1064</v>
       </c>
@@ -31859,7 +31995,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="109" spans="4:29">
+    <row r="109" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E109" t="s">
         <v>1080</v>
       </c>
@@ -31876,7 +32012,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="110" spans="4:29">
+    <row r="110" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E110" t="s">
         <v>1752</v>
       </c>
@@ -31893,7 +32029,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="111" spans="4:29">
+    <row r="111" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E111" t="s">
         <v>1757</v>
       </c>
@@ -31910,7 +32046,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="112" spans="4:29">
+    <row r="112" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E112" t="s">
         <v>1762</v>
       </c>
@@ -31927,7 +32063,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="113" spans="5:20">
+    <row r="113" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E113" t="s">
         <v>1767</v>
       </c>
@@ -31944,7 +32080,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="114" spans="5:20">
+    <row r="114" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E114" t="s">
         <v>1772</v>
       </c>
@@ -31961,7 +32097,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="115" spans="5:20">
+    <row r="115" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E115" t="s">
         <v>1777</v>
       </c>
@@ -31978,7 +32114,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="116" spans="5:20">
+    <row r="116" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E116" t="s">
         <v>1782</v>
       </c>
@@ -31995,7 +32131,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="117" spans="5:20">
+    <row r="117" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E117" t="s">
         <v>1787</v>
       </c>
@@ -32012,7 +32148,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="118" spans="5:20">
+    <row r="118" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E118" t="s">
         <v>1792</v>
       </c>
@@ -32029,7 +32165,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="119" spans="5:20">
+    <row r="119" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E119" t="s">
         <v>1797</v>
       </c>
@@ -32046,7 +32182,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="120" spans="5:20">
+    <row r="120" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E120" t="s">
         <v>1802</v>
       </c>
@@ -32063,7 +32199,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="121" spans="5:20">
+    <row r="121" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E121" t="s">
         <v>1807</v>
       </c>
@@ -32080,7 +32216,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="122" spans="5:20">
+    <row r="122" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E122" t="s">
         <v>554</v>
       </c>
@@ -32097,7 +32233,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="123" spans="5:20">
+    <row r="123" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E123" t="s">
         <v>1112</v>
       </c>
@@ -32114,7 +32250,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="124" spans="5:20">
+    <row r="124" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E124" t="s">
         <v>1129</v>
       </c>
@@ -32131,7 +32267,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="125" spans="5:20">
+    <row r="125" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E125" t="s">
         <v>1146</v>
       </c>
@@ -32148,7 +32284,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="126" spans="5:20">
+    <row r="126" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E126" t="s">
         <v>1163</v>
       </c>
@@ -32165,7 +32301,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="127" spans="5:20">
+    <row r="127" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E127" t="s">
         <v>1180</v>
       </c>
@@ -32182,7 +32318,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="128" spans="5:20">
+    <row r="128" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E128" t="s">
         <v>1197</v>
       </c>
@@ -32199,7 +32335,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="129" spans="5:20">
+    <row r="129" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E129" t="s">
         <v>1214</v>
       </c>
@@ -32216,7 +32352,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="130" spans="5:20">
+    <row r="130" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E130" t="s">
         <v>1231</v>
       </c>
@@ -32233,7 +32369,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="131" spans="5:20">
+    <row r="131" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E131" t="s">
         <v>1248</v>
       </c>
@@ -32250,7 +32386,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="132" spans="5:20">
+    <row r="132" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E132" t="s">
         <v>1265</v>
       </c>
@@ -32267,7 +32403,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="133" spans="5:20">
+    <row r="133" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E133" t="s">
         <v>1282</v>
       </c>
@@ -32284,7 +32420,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="134" spans="5:20">
+    <row r="134" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E134" t="s">
         <v>1860</v>
       </c>
@@ -32301,7 +32437,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="135" spans="5:20">
+    <row r="135" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E135" t="s">
         <v>1865</v>
       </c>
@@ -32318,7 +32454,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="136" spans="5:20">
+    <row r="136" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E136" t="s">
         <v>1870</v>
       </c>
@@ -32335,7 +32471,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="137" spans="5:20">
+    <row r="137" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E137" t="s">
         <v>1875</v>
       </c>
@@ -32352,7 +32488,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="138" spans="5:20">
+    <row r="138" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E138" t="s">
         <v>1880</v>
       </c>
@@ -32369,7 +32505,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="139" spans="5:20">
+    <row r="139" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E139" t="s">
         <v>1885</v>
       </c>
@@ -32386,7 +32522,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="140" spans="5:20">
+    <row r="140" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E140" t="s">
         <v>1890</v>
       </c>
@@ -32403,7 +32539,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="141" spans="5:20">
+    <row r="141" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E141" t="s">
         <v>1895</v>
       </c>
@@ -32420,7 +32556,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="142" spans="5:20">
+    <row r="142" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E142" t="s">
         <v>1900</v>
       </c>
@@ -32437,7 +32573,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="143" spans="5:20">
+    <row r="143" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E143" t="s">
         <v>1905</v>
       </c>
@@ -32454,7 +32590,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="144" spans="5:20">
+    <row r="144" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E144" t="s">
         <v>1910</v>
       </c>
@@ -32471,7 +32607,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="145" spans="5:20">
+    <row r="145" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E145" t="s">
         <v>1915</v>
       </c>
@@ -32488,7 +32624,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="146" spans="5:20">
+    <row r="146" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E146" t="s">
         <v>700</v>
       </c>
@@ -32505,7 +32641,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="147" spans="5:20">
+    <row r="147" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E147" t="s">
         <v>1314</v>
       </c>
@@ -32522,7 +32658,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="148" spans="5:20">
+    <row r="148" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E148" t="s">
         <v>1330</v>
       </c>
@@ -32539,7 +32675,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="149" spans="5:20">
+    <row r="149" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E149" t="s">
         <v>1346</v>
       </c>
@@ -32556,7 +32692,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="150" spans="5:20">
+    <row r="150" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E150" t="s">
         <v>1362</v>
       </c>
@@ -32573,7 +32709,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="151" spans="5:20">
+    <row r="151" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E151" t="s">
         <v>1378</v>
       </c>
@@ -32590,7 +32726,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="152" spans="5:20">
+    <row r="152" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E152" t="s">
         <v>1394</v>
       </c>
@@ -32607,7 +32743,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="153" spans="5:20">
+    <row r="153" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E153" t="s">
         <v>1410</v>
       </c>
@@ -32624,7 +32760,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="154" spans="5:20">
+    <row r="154" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E154" t="s">
         <v>1426</v>
       </c>
@@ -32641,7 +32777,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="155" spans="5:20">
+    <row r="155" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E155" t="s">
         <v>1442</v>
       </c>
@@ -32658,7 +32794,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="156" spans="5:20">
+    <row r="156" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E156" t="s">
         <v>1458</v>
       </c>
@@ -32675,7 +32811,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="157" spans="5:20">
+    <row r="157" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E157" t="s">
         <v>1474</v>
       </c>
@@ -32692,7 +32828,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="158" spans="5:20">
+    <row r="158" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E158" t="s">
         <v>1968</v>
       </c>
@@ -32709,7 +32845,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="159" spans="5:20">
+    <row r="159" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E159" t="s">
         <v>1973</v>
       </c>
@@ -32726,7 +32862,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="160" spans="5:20">
+    <row r="160" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E160" t="s">
         <v>1978</v>
       </c>
@@ -32743,7 +32879,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="161" spans="5:20">
+    <row r="161" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E161" t="s">
         <v>1983</v>
       </c>
@@ -32760,7 +32896,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="162" spans="5:20">
+    <row r="162" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E162" t="s">
         <v>1988</v>
       </c>
@@ -32777,7 +32913,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="163" spans="5:20">
+    <row r="163" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E163" t="s">
         <v>1993</v>
       </c>
@@ -32794,7 +32930,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="164" spans="5:20">
+    <row r="164" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E164" t="s">
         <v>1998</v>
       </c>
@@ -32811,7 +32947,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="165" spans="5:20">
+    <row r="165" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E165" t="s">
         <v>2003</v>
       </c>
@@ -32828,7 +32964,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="166" spans="5:20">
+    <row r="166" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E166" t="s">
         <v>2008</v>
       </c>
@@ -32845,7 +32981,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="167" spans="5:20">
+    <row r="167" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E167" t="s">
         <v>2013</v>
       </c>
@@ -32862,7 +32998,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="168" spans="5:20">
+    <row r="168" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E168" t="s">
         <v>2018</v>
       </c>
@@ -32879,7 +33015,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="169" spans="5:20">
+    <row r="169" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E169" t="s">
         <v>2023</v>
       </c>
@@ -32896,7 +33032,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="170" spans="5:20">
+    <row r="170" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E170" t="s">
         <v>872</v>
       </c>
@@ -32913,7 +33049,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="171" spans="5:20">
+    <row r="171" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E171" t="s">
         <v>1506</v>
       </c>
@@ -32930,7 +33066,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="172" spans="5:20">
+    <row r="172" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E172" t="s">
         <v>1523</v>
       </c>
@@ -32947,7 +33083,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="173" spans="5:20">
+    <row r="173" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E173" t="s">
         <v>1540</v>
       </c>
@@ -32964,7 +33100,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="174" spans="5:20">
+    <row r="174" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E174" t="s">
         <v>1557</v>
       </c>
@@ -32981,7 +33117,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="175" spans="5:20">
+    <row r="175" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E175" t="s">
         <v>1574</v>
       </c>
@@ -32998,7 +33134,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="176" spans="5:20">
+    <row r="176" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E176" t="s">
         <v>1591</v>
       </c>
@@ -33015,7 +33151,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="177" spans="5:20">
+    <row r="177" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E177" t="s">
         <v>1608</v>
       </c>
@@ -33032,7 +33168,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="178" spans="5:20">
+    <row r="178" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E178" t="s">
         <v>1625</v>
       </c>
@@ -33049,7 +33185,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="179" spans="5:20">
+    <row r="179" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E179" t="s">
         <v>1642</v>
       </c>
@@ -33066,7 +33202,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="180" spans="5:20">
+    <row r="180" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E180" t="s">
         <v>1659</v>
       </c>
@@ -33083,7 +33219,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="181" spans="5:20">
+    <row r="181" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E181" t="s">
         <v>1676</v>
       </c>
@@ -33100,7 +33236,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="182" spans="5:20">
+    <row r="182" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E182" t="s">
         <v>2076</v>
       </c>
@@ -33117,7 +33253,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="183" spans="5:20">
+    <row r="183" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E183" t="s">
         <v>2081</v>
       </c>
@@ -33134,7 +33270,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="184" spans="5:20">
+    <row r="184" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E184" t="s">
         <v>2086</v>
       </c>
@@ -33151,7 +33287,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="185" spans="5:20">
+    <row r="185" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E185" t="s">
         <v>2091</v>
       </c>
@@ -33168,7 +33304,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="186" spans="5:20">
+    <row r="186" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E186" t="s">
         <v>2096</v>
       </c>
@@ -33185,7 +33321,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="187" spans="5:20">
+    <row r="187" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E187" t="s">
         <v>2101</v>
       </c>
@@ -33202,7 +33338,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="188" spans="5:20">
+    <row r="188" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E188" t="s">
         <v>2106</v>
       </c>
@@ -33219,7 +33355,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="189" spans="5:20">
+    <row r="189" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E189" t="s">
         <v>2111</v>
       </c>
@@ -33236,7 +33372,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="190" spans="5:20">
+    <row r="190" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E190" t="s">
         <v>2116</v>
       </c>
@@ -33253,7 +33389,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="191" spans="5:20">
+    <row r="191" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E191" t="s">
         <v>2121</v>
       </c>
@@ -33270,7 +33406,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="192" spans="5:20">
+    <row r="192" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E192" t="s">
         <v>2126</v>
       </c>
@@ -33287,7 +33423,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="193" spans="5:20">
+    <row r="193" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E193" t="s">
         <v>2131</v>
       </c>
@@ -33304,7 +33440,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="194" spans="5:20">
+    <row r="194" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E194" t="s">
         <v>2136</v>
       </c>
@@ -33318,7 +33454,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="195" spans="5:20">
+    <row r="195" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E195" t="s">
         <v>2140</v>
       </c>
@@ -33332,7 +33468,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="196" spans="5:20">
+    <row r="196" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E196" t="s">
         <v>2144</v>
       </c>
@@ -33346,7 +33482,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="197" spans="5:20">
+    <row r="197" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E197" t="s">
         <v>2148</v>
       </c>
@@ -33360,7 +33496,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="198" spans="5:20">
+    <row r="198" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E198" t="s">
         <v>2152</v>
       </c>
@@ -33374,7 +33510,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="199" spans="5:20">
+    <row r="199" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E199" t="s">
         <v>2156</v>
       </c>
@@ -33388,7 +33524,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="200" spans="5:20">
+    <row r="200" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E200" t="s">
         <v>2160</v>
       </c>
@@ -33402,7 +33538,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="201" spans="5:20">
+    <row r="201" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E201" t="s">
         <v>2164</v>
       </c>
@@ -33416,7 +33552,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="202" spans="5:20">
+    <row r="202" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E202" t="s">
         <v>2168</v>
       </c>
@@ -33430,7 +33566,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="203" spans="5:20">
+    <row r="203" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E203" t="s">
         <v>2172</v>
       </c>
@@ -33444,7 +33580,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="204" spans="5:20">
+    <row r="204" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E204" t="s">
         <v>2176</v>
       </c>
@@ -33458,7 +33594,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="205" spans="5:20">
+    <row r="205" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E205" t="s">
         <v>2180</v>
       </c>
@@ -33472,7 +33608,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="206" spans="5:20">
+    <row r="206" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E206" t="s">
         <v>2184</v>
       </c>
@@ -33486,7 +33622,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="207" spans="5:20">
+    <row r="207" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E207" t="s">
         <v>2188</v>
       </c>
@@ -33500,7 +33636,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="208" spans="5:20">
+    <row r="208" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E208" t="s">
         <v>2192</v>
       </c>
@@ -33514,7 +33650,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="209" spans="5:18">
+    <row r="209" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E209" t="s">
         <v>2196</v>
       </c>
@@ -33528,7 +33664,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="210" spans="5:18">
+    <row r="210" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E210" t="s">
         <v>2200</v>
       </c>
@@ -33542,7 +33678,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="211" spans="5:18">
+    <row r="211" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E211" t="s">
         <v>2204</v>
       </c>
@@ -33556,7 +33692,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="212" spans="5:18">
+    <row r="212" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E212" t="s">
         <v>2208</v>
       </c>
@@ -33570,7 +33706,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="213" spans="5:18">
+    <row r="213" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E213" t="s">
         <v>2212</v>
       </c>
@@ -33584,7 +33720,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="214" spans="5:18">
+    <row r="214" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E214" t="s">
         <v>2216</v>
       </c>
@@ -33598,7 +33734,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="215" spans="5:18">
+    <row r="215" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E215" t="s">
         <v>2220</v>
       </c>
@@ -33612,7 +33748,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="216" spans="5:18">
+    <row r="216" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E216" t="s">
         <v>2224</v>
       </c>
@@ -33626,7 +33762,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="217" spans="5:18">
+    <row r="217" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E217" t="s">
         <v>2228</v>
       </c>
@@ -33640,7 +33776,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="218" spans="5:18">
+    <row r="218" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E218" t="s">
         <v>2232</v>
       </c>
@@ -33654,7 +33790,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="219" spans="5:18">
+    <row r="219" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E219" t="s">
         <v>2236</v>
       </c>
@@ -33668,7 +33804,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="220" spans="5:18">
+    <row r="220" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E220" t="s">
         <v>2240</v>
       </c>
@@ -33682,7 +33818,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="221" spans="5:18">
+    <row r="221" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E221" t="s">
         <v>2244</v>
       </c>
@@ -33696,7 +33832,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="222" spans="5:18">
+    <row r="222" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E222" t="s">
         <v>2248</v>
       </c>
@@ -33710,7 +33846,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="223" spans="5:18">
+    <row r="223" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E223" t="s">
         <v>2252</v>
       </c>
@@ -33724,7 +33860,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="224" spans="5:18">
+    <row r="224" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E224" t="s">
         <v>2256</v>
       </c>
@@ -33738,7 +33874,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="225" spans="5:18">
+    <row r="225" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E225" t="s">
         <v>2260</v>
       </c>
@@ -33752,7 +33888,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="226" spans="5:18">
+    <row r="226" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E226" t="s">
         <v>2264</v>
       </c>
@@ -33766,7 +33902,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="227" spans="5:18">
+    <row r="227" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E227" t="s">
         <v>2268</v>
       </c>
@@ -33780,7 +33916,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="228" spans="5:18">
+    <row r="228" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E228" t="s">
         <v>2272</v>
       </c>
@@ -33794,7 +33930,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="229" spans="5:18">
+    <row r="229" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E229" t="s">
         <v>2276</v>
       </c>
@@ -33808,7 +33944,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="230" spans="5:18">
+    <row r="230" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E230" t="s">
         <v>2280</v>
       </c>
@@ -33822,7 +33958,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="231" spans="5:18">
+    <row r="231" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E231" t="s">
         <v>2284</v>
       </c>
@@ -33836,7 +33972,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="232" spans="5:18">
+    <row r="232" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E232" t="s">
         <v>2288</v>
       </c>
@@ -33850,7 +33986,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="233" spans="5:18">
+    <row r="233" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E233" t="s">
         <v>2292</v>
       </c>
@@ -33864,7 +34000,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="234" spans="5:18">
+    <row r="234" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E234" t="s">
         <v>2296</v>
       </c>
@@ -33878,7 +34014,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="235" spans="5:18">
+    <row r="235" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E235" t="s">
         <v>2300</v>
       </c>
@@ -33892,7 +34028,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="236" spans="5:18">
+    <row r="236" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E236" t="s">
         <v>2304</v>
       </c>
@@ -33906,7 +34042,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="237" spans="5:18">
+    <row r="237" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E237" t="s">
         <v>2308</v>
       </c>
@@ -33920,7 +34056,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="238" spans="5:18">
+    <row r="238" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E238" t="s">
         <v>2312</v>
       </c>
@@ -33934,7 +34070,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="239" spans="5:18">
+    <row r="239" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E239" t="s">
         <v>2316</v>
       </c>
@@ -33948,7 +34084,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="240" spans="5:18">
+    <row r="240" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E240" t="s">
         <v>2320</v>
       </c>
@@ -33962,7 +34098,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="241" spans="5:18">
+    <row r="241" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E241" t="s">
         <v>2324</v>
       </c>
@@ -33976,7 +34112,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="242" spans="5:18">
+    <row r="242" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E242" t="s">
         <v>2328</v>
       </c>
@@ -33990,7 +34126,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="243" spans="5:18">
+    <row r="243" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E243" t="s">
         <v>2332</v>
       </c>
@@ -34004,7 +34140,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="244" spans="5:18">
+    <row r="244" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E244" t="s">
         <v>2336</v>
       </c>
@@ -34018,7 +34154,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="245" spans="5:18">
+    <row r="245" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E245" t="s">
         <v>2340</v>
       </c>
@@ -34032,7 +34168,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="246" spans="5:18">
+    <row r="246" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E246" t="s">
         <v>2344</v>
       </c>
@@ -34046,7 +34182,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="247" spans="5:18">
+    <row r="247" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E247" t="s">
         <v>2348</v>
       </c>
@@ -34060,7 +34196,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="248" spans="5:18">
+    <row r="248" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E248" t="s">
         <v>2352</v>
       </c>
@@ -34074,7 +34210,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="249" spans="5:18">
+    <row r="249" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E249" t="s">
         <v>2356</v>
       </c>
@@ -34088,7 +34224,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="250" spans="5:18">
+    <row r="250" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E250" t="s">
         <v>2360</v>
       </c>
@@ -34102,7 +34238,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="251" spans="5:18">
+    <row r="251" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E251" t="s">
         <v>2364</v>
       </c>
@@ -34116,7 +34252,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="252" spans="5:18">
+    <row r="252" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E252" t="s">
         <v>2368</v>
       </c>
@@ -34130,7 +34266,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="253" spans="5:18">
+    <row r="253" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E253" t="s">
         <v>2372</v>
       </c>
@@ -34144,7 +34280,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="254" spans="5:18">
+    <row r="254" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E254" t="s">
         <v>2376</v>
       </c>
@@ -34158,7 +34294,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="255" spans="5:18">
+    <row r="255" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E255" t="s">
         <v>2380</v>
       </c>
@@ -34172,7 +34308,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="256" spans="5:18">
+    <row r="256" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E256" t="s">
         <v>2384</v>
       </c>
@@ -34186,7 +34322,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="257" spans="5:18">
+    <row r="257" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E257" t="s">
         <v>2388</v>
       </c>
@@ -34200,7 +34336,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="258" spans="5:18">
+    <row r="258" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E258" t="s">
         <v>2392</v>
       </c>
@@ -34214,7 +34350,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="259" spans="5:18">
+    <row r="259" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E259" t="s">
         <v>2396</v>
       </c>
@@ -34228,7 +34364,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="260" spans="5:18">
+    <row r="260" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E260" t="s">
         <v>2400</v>
       </c>
@@ -34242,7 +34378,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="261" spans="5:18">
+    <row r="261" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E261" t="s">
         <v>2404</v>
       </c>
@@ -34256,7 +34392,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="262" spans="5:18">
+    <row r="262" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E262" t="s">
         <v>2408</v>
       </c>
@@ -34270,7 +34406,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="263" spans="5:18">
+    <row r="263" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E263" t="s">
         <v>2412</v>
       </c>
@@ -34284,7 +34420,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="264" spans="5:18">
+    <row r="264" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E264" t="s">
         <v>2416</v>
       </c>
@@ -34298,7 +34434,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="265" spans="5:18">
+    <row r="265" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E265" t="s">
         <v>2420</v>
       </c>
@@ -34312,7 +34448,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="266" spans="5:18">
+    <row r="266" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E266" t="s">
         <v>2424</v>
       </c>
@@ -34326,7 +34462,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="267" spans="5:18">
+    <row r="267" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E267" t="s">
         <v>2428</v>
       </c>
@@ -34340,7 +34476,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="268" spans="5:18">
+    <row r="268" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E268" t="s">
         <v>2432</v>
       </c>
@@ -34354,7 +34490,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="269" spans="5:18">
+    <row r="269" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E269" t="s">
         <v>2436</v>
       </c>
@@ -34368,7 +34504,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="270" spans="5:18">
+    <row r="270" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E270" t="s">
         <v>2440</v>
       </c>
@@ -34382,7 +34518,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="271" spans="5:18">
+    <row r="271" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E271" t="s">
         <v>2444</v>
       </c>
@@ -34396,7 +34532,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="272" spans="5:18">
+    <row r="272" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E272" t="s">
         <v>2448</v>
       </c>
@@ -34410,7 +34546,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="273" spans="5:18">
+    <row r="273" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E273" t="s">
         <v>2452</v>
       </c>
@@ -34424,7 +34560,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="274" spans="5:18">
+    <row r="274" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E274" t="s">
         <v>2456</v>
       </c>
@@ -34438,7 +34574,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="275" spans="5:18">
+    <row r="275" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E275" t="s">
         <v>2460</v>
       </c>
@@ -34452,7 +34588,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="276" spans="5:18">
+    <row r="276" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E276" t="s">
         <v>2464</v>
       </c>
@@ -34466,7 +34602,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="277" spans="5:18">
+    <row r="277" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E277" t="s">
         <v>2468</v>
       </c>
@@ -34480,7 +34616,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="278" spans="5:18">
+    <row r="278" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E278" t="s">
         <v>2472</v>
       </c>
@@ -34494,7 +34630,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="279" spans="5:18">
+    <row r="279" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E279" t="s">
         <v>2476</v>
       </c>
@@ -34508,7 +34644,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="280" spans="5:18">
+    <row r="280" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E280" t="s">
         <v>2480</v>
       </c>
@@ -34522,7 +34658,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="281" spans="5:18">
+    <row r="281" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E281" t="s">
         <v>2484</v>
       </c>
@@ -34536,7 +34672,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="282" spans="5:18">
+    <row r="282" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E282" t="s">
         <v>2488</v>
       </c>
@@ -34550,7 +34686,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="283" spans="5:18">
+    <row r="283" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E283" t="s">
         <v>2492</v>
       </c>
@@ -34564,7 +34700,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="284" spans="5:18">
+    <row r="284" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E284" t="s">
         <v>2496</v>
       </c>
@@ -34578,7 +34714,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="285" spans="5:18">
+    <row r="285" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E285" t="s">
         <v>2500</v>
       </c>
@@ -34592,7 +34728,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="286" spans="5:18">
+    <row r="286" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E286" t="s">
         <v>2504</v>
       </c>
@@ -34606,7 +34742,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="287" spans="5:18">
+    <row r="287" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E287" t="s">
         <v>2508</v>
       </c>
@@ -34620,7 +34756,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="288" spans="5:18">
+    <row r="288" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E288" t="s">
         <v>2512</v>
       </c>
@@ -34634,7 +34770,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="289" spans="5:18">
+    <row r="289" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E289" t="s">
         <v>2516</v>
       </c>
@@ -34648,7 +34784,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="290" spans="5:18">
+    <row r="290" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E290" t="s">
         <v>2520</v>
       </c>
@@ -34662,7 +34798,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="291" spans="5:18">
+    <row r="291" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E291" t="s">
         <v>2524</v>
       </c>
@@ -34676,7 +34812,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="292" spans="5:18">
+    <row r="292" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E292" t="s">
         <v>2528</v>
       </c>
@@ -34690,7 +34826,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="293" spans="5:18">
+    <row r="293" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E293" t="s">
         <v>2532</v>
       </c>
@@ -34704,7 +34840,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="294" spans="5:18">
+    <row r="294" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E294" t="s">
         <v>2536</v>
       </c>
@@ -34718,7 +34854,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="295" spans="5:18">
+    <row r="295" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E295" t="s">
         <v>2540</v>
       </c>
@@ -34732,7 +34868,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="296" spans="5:18">
+    <row r="296" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E296" t="s">
         <v>2544</v>
       </c>
@@ -34746,7 +34882,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="297" spans="5:18">
+    <row r="297" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E297" t="s">
         <v>2548</v>
       </c>
@@ -34760,7 +34896,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="298" spans="5:18">
+    <row r="298" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E298" t="s">
         <v>2552</v>
       </c>
@@ -34774,7 +34910,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="299" spans="5:18">
+    <row r="299" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E299" t="s">
         <v>2556</v>
       </c>
@@ -34788,7 +34924,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="300" spans="5:18">
+    <row r="300" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E300" t="s">
         <v>2560</v>
       </c>
@@ -34802,7 +34938,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="301" spans="5:18">
+    <row r="301" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E301" t="s">
         <v>2564</v>
       </c>
@@ -34816,7 +34952,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="302" spans="5:18">
+    <row r="302" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E302" t="s">
         <v>2568</v>
       </c>
@@ -34830,7 +34966,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="303" spans="5:18">
+    <row r="303" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E303" t="s">
         <v>2572</v>
       </c>
@@ -34844,7 +34980,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="304" spans="5:18">
+    <row r="304" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E304" t="s">
         <v>2576</v>
       </c>
@@ -34858,7 +34994,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="305" spans="5:18">
+    <row r="305" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E305" t="s">
         <v>2580</v>
       </c>
@@ -34872,7 +35008,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="306" spans="5:18">
+    <row r="306" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E306" t="s">
         <v>2584</v>
       </c>
@@ -34886,7 +35022,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="307" spans="5:18">
+    <row r="307" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E307" t="s">
         <v>2588</v>
       </c>
@@ -34900,7 +35036,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="308" spans="5:18">
+    <row r="308" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E308" t="s">
         <v>2592</v>
       </c>
@@ -34914,7 +35050,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="309" spans="5:18">
+    <row r="309" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E309" t="s">
         <v>2596</v>
       </c>
@@ -34928,7 +35064,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="310" spans="5:18">
+    <row r="310" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E310" t="s">
         <v>2600</v>
       </c>
@@ -34942,7 +35078,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="311" spans="5:18">
+    <row r="311" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E311" t="s">
         <v>2604</v>
       </c>
@@ -34956,7 +35092,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="312" spans="5:18">
+    <row r="312" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E312" t="s">
         <v>2608</v>
       </c>
@@ -34970,7 +35106,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="313" spans="5:18">
+    <row r="313" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E313" t="s">
         <v>2612</v>
       </c>
@@ -34984,7 +35120,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="314" spans="5:18">
+    <row r="314" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E314" t="s">
         <v>2616</v>
       </c>
@@ -34998,7 +35134,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="315" spans="5:18">
+    <row r="315" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E315" t="s">
         <v>2620</v>
       </c>
@@ -35012,7 +35148,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="316" spans="5:18">
+    <row r="316" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E316" t="s">
         <v>2624</v>
       </c>
@@ -35026,7 +35162,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="317" spans="5:18">
+    <row r="317" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E317" t="s">
         <v>2628</v>
       </c>
@@ -35040,7 +35176,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="318" spans="5:18">
+    <row r="318" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E318" t="s">
         <v>2632</v>
       </c>
@@ -35054,7 +35190,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="319" spans="5:18">
+    <row r="319" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E319" t="s">
         <v>2636</v>
       </c>
@@ -35068,7 +35204,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="320" spans="5:18">
+    <row r="320" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E320" t="s">
         <v>2640</v>
       </c>
@@ -35082,7 +35218,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="321" spans="5:18">
+    <row r="321" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E321" t="s">
         <v>2644</v>
       </c>
@@ -35096,7 +35232,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="322" spans="5:18">
+    <row r="322" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E322" t="s">
         <v>2648</v>
       </c>
@@ -35110,7 +35246,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="323" spans="5:18">
+    <row r="323" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E323" t="s">
         <v>2652</v>
       </c>
@@ -35124,7 +35260,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="324" spans="5:18">
+    <row r="324" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E324" t="s">
         <v>2656</v>
       </c>
@@ -35138,7 +35274,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="325" spans="5:18">
+    <row r="325" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E325" t="s">
         <v>2660</v>
       </c>
@@ -35152,7 +35288,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="326" spans="5:18">
+    <row r="326" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E326" t="s">
         <v>2664</v>
       </c>
@@ -35166,7 +35302,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="327" spans="5:18">
+    <row r="327" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E327" t="s">
         <v>2668</v>
       </c>
@@ -35180,7 +35316,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="328" spans="5:18">
+    <row r="328" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E328" t="s">
         <v>2672</v>
       </c>
@@ -35194,7 +35330,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="329" spans="5:18">
+    <row r="329" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E329" t="s">
         <v>2676</v>
       </c>
@@ -35208,7 +35344,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="330" spans="5:18">
+    <row r="330" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E330" t="s">
         <v>2680</v>
       </c>
@@ -35222,7 +35358,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="331" spans="5:18">
+    <row r="331" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E331" t="s">
         <v>2684</v>
       </c>
@@ -35236,7 +35372,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="332" spans="5:18">
+    <row r="332" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E332" t="s">
         <v>2688</v>
       </c>
@@ -35250,7 +35386,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="333" spans="5:18">
+    <row r="333" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E333" t="s">
         <v>2692</v>
       </c>
@@ -35264,7 +35400,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="334" spans="5:18">
+    <row r="334" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E334" t="s">
         <v>2696</v>
       </c>
@@ -35278,7 +35414,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="335" spans="5:18">
+    <row r="335" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E335" t="s">
         <v>2700</v>
       </c>
@@ -35292,7 +35428,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="336" spans="5:18">
+    <row r="336" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E336" t="s">
         <v>2704</v>
       </c>
@@ -35306,7 +35442,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="337" spans="5:18">
+    <row r="337" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E337" t="s">
         <v>2708</v>
       </c>
@@ -35320,7 +35456,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="338" spans="5:18">
+    <row r="338" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E338" t="s">
         <v>2712</v>
       </c>
@@ -35334,7 +35470,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="339" spans="5:18">
+    <row r="339" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E339" t="s">
         <v>2716</v>
       </c>
@@ -35348,7 +35484,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="340" spans="5:18">
+    <row r="340" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E340" t="s">
         <v>2720</v>
       </c>
@@ -35362,7 +35498,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="341" spans="5:18">
+    <row r="341" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E341" t="s">
         <v>2724</v>
       </c>
@@ -35376,7 +35512,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="342" spans="5:18">
+    <row r="342" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E342" t="s">
         <v>2728</v>
       </c>
@@ -35390,7 +35526,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="343" spans="5:18">
+    <row r="343" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E343" t="s">
         <v>2732</v>
       </c>
@@ -35404,7 +35540,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="344" spans="5:18">
+    <row r="344" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E344" t="s">
         <v>2736</v>
       </c>
@@ -35418,7 +35554,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="345" spans="5:18">
+    <row r="345" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E345" t="s">
         <v>2740</v>
       </c>
@@ -35432,7 +35568,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="346" spans="5:18">
+    <row r="346" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E346" t="s">
         <v>2744</v>
       </c>
@@ -35446,7 +35582,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="347" spans="5:18">
+    <row r="347" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E347" t="s">
         <v>2748</v>
       </c>
@@ -35460,7 +35596,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="348" spans="5:18">
+    <row r="348" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E348" t="s">
         <v>2752</v>
       </c>
@@ -35474,7 +35610,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="349" spans="5:18">
+    <row r="349" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E349" t="s">
         <v>2756</v>
       </c>
@@ -35488,7 +35624,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="350" spans="5:18">
+    <row r="350" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E350" t="s">
         <v>2760</v>
       </c>
@@ -35502,7 +35638,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="351" spans="5:18">
+    <row r="351" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E351" t="s">
         <v>2764</v>
       </c>
@@ -35516,7 +35652,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="352" spans="5:18">
+    <row r="352" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E352" t="s">
         <v>2768</v>
       </c>
@@ -35530,7 +35666,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="353" spans="5:18">
+    <row r="353" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E353" t="s">
         <v>2772</v>
       </c>
@@ -35544,7 +35680,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="354" spans="5:18">
+    <row r="354" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E354" t="s">
         <v>2776</v>
       </c>
@@ -35558,7 +35694,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="355" spans="5:18">
+    <row r="355" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E355" t="s">
         <v>2780</v>
       </c>
@@ -35572,7 +35708,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="356" spans="5:18">
+    <row r="356" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E356" t="s">
         <v>2784</v>
       </c>
@@ -35586,7 +35722,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="357" spans="5:18">
+    <row r="357" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E357" t="s">
         <v>2788</v>
       </c>
@@ -35600,7 +35736,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="358" spans="5:18">
+    <row r="358" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E358" t="s">
         <v>2792</v>
       </c>
@@ -35614,7 +35750,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="359" spans="5:18">
+    <row r="359" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E359" t="s">
         <v>2796</v>
       </c>
@@ -35628,7 +35764,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="360" spans="5:18">
+    <row r="360" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E360" t="s">
         <v>2800</v>
       </c>
@@ -35642,7 +35778,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="361" spans="5:18">
+    <row r="361" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E361" t="s">
         <v>2804</v>
       </c>
@@ -35656,7 +35792,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="362" spans="5:18">
+    <row r="362" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E362" t="s">
         <v>2808</v>
       </c>
@@ -35670,7 +35806,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="363" spans="5:18">
+    <row r="363" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E363" t="s">
         <v>2812</v>
       </c>
@@ -35684,7 +35820,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="364" spans="5:18">
+    <row r="364" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E364" t="s">
         <v>2816</v>
       </c>
@@ -35698,7 +35834,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="365" spans="5:18">
+    <row r="365" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E365" t="s">
         <v>2820</v>
       </c>
@@ -35712,7 +35848,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="366" spans="5:18">
+    <row r="366" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E366" t="s">
         <v>2824</v>
       </c>
@@ -35726,7 +35862,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="367" spans="5:18">
+    <row r="367" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E367" t="s">
         <v>2828</v>
       </c>
@@ -35740,7 +35876,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="368" spans="5:18">
+    <row r="368" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E368" t="s">
         <v>2832</v>
       </c>
@@ -35754,7 +35890,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="369" spans="5:18">
+    <row r="369" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E369" t="s">
         <v>2836</v>
       </c>
@@ -35768,7 +35904,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="370" spans="5:18">
+    <row r="370" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E370" t="s">
         <v>2840</v>
       </c>
@@ -35782,7 +35918,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="371" spans="5:18">
+    <row r="371" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E371" t="s">
         <v>2844</v>
       </c>
@@ -35796,7 +35932,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="372" spans="5:18">
+    <row r="372" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E372" t="s">
         <v>2848</v>
       </c>
@@ -35810,7 +35946,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="373" spans="5:18">
+    <row r="373" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E373" t="s">
         <v>2852</v>
       </c>
@@ -35824,7 +35960,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="374" spans="5:18">
+    <row r="374" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E374" t="s">
         <v>2856</v>
       </c>
@@ -35838,7 +35974,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="375" spans="5:18">
+    <row r="375" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E375" t="s">
         <v>2860</v>
       </c>
@@ -35852,7 +35988,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="376" spans="5:18">
+    <row r="376" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E376" t="s">
         <v>2864</v>
       </c>
@@ -35866,7 +36002,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="377" spans="5:18">
+    <row r="377" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E377" t="s">
         <v>2868</v>
       </c>
@@ -35880,7 +36016,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="378" spans="5:18">
+    <row r="378" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E378" t="s">
         <v>2872</v>
       </c>
@@ -35894,7 +36030,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="379" spans="5:18">
+    <row r="379" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E379" t="s">
         <v>2876</v>
       </c>
@@ -35908,7 +36044,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="380" spans="5:18">
+    <row r="380" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E380" t="s">
         <v>2880</v>
       </c>
@@ -35922,7 +36058,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="381" spans="5:18">
+    <row r="381" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E381" t="s">
         <v>2884</v>
       </c>
@@ -35936,7 +36072,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="382" spans="5:18">
+    <row r="382" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E382" t="s">
         <v>2888</v>
       </c>
@@ -35950,7 +36086,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="383" spans="5:18">
+    <row r="383" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E383" t="s">
         <v>2892</v>
       </c>
@@ -35964,7 +36100,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="384" spans="5:18">
+    <row r="384" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E384" t="s">
         <v>2896</v>
       </c>
@@ -35978,7 +36114,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="385" spans="5:18">
+    <row r="385" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E385" t="s">
         <v>2900</v>
       </c>

--- a/backend/fms_core/static/submission_templates/Sample_submission_v3_12_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_submission_v3_12_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ckostiw/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A96EB6-7FD9-1146-A6D2-C19F6018D96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E54B62-D363-A04B-A891-B38D51D44727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30200" yWindow="-3100" windowWidth="28800" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10062,9 +10062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
